--- a/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=14/Prozesse_Stückliste_L1_S4_i23,28_Scheiben.xlsx
+++ b/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=14/Prozesse_Stückliste_L1_S4_i23,28_Scheiben.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_11A2CD86AE0A81C8BF9B0D8C1CF59A0A403392D0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_C290A855DAC40C962C62F7F11F9DD7CB5330F6B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="142">
   <si>
     <t>Benennung:</t>
   </si>
@@ -1212,7 +1212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1335,9 +1335,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
@@ -1446,6 +1443,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1496,7 +1502,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1802,18 +1808,18 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="128"/>
-      <c r="H1" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="132"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="134"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -3725,18 +3731,18 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="128"/>
-      <c r="H1" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="132"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="134"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -5681,18 +5687,18 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="128"/>
-      <c r="H1" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="132"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="134"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -7637,18 +7643,18 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="128"/>
-      <c r="H1" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="132"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="134"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -9571,8 +9577,8 @@
   <dimension ref="A1:U340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I94" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E108" sqref="E108:G108"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -9584,7 +9590,7 @@
     <col min="4" max="4" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="114" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="113" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
@@ -9597,7 +9603,7 @@
     <col min="17" max="17" width="14.5703125" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="123" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="122" customWidth="1"/>
     <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.85546875" customWidth="1"/>
     <col min="23" max="23" width="13.85546875" customWidth="1"/>
@@ -9607,60 +9613,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="141" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="133" t="s">
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="142"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="69" t="s">
@@ -9678,10 +9684,10 @@
       <c r="E3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="114" t="s">
         <v>135</v>
       </c>
       <c r="H3" s="71" t="s">
@@ -9720,7 +9726,7 @@
       <c r="S3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="118" t="s">
+      <c r="T3" s="117" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9730,8 +9736,8 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="104"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="29">
         <v>0</v>
       </c>
@@ -9756,7 +9762,7 @@
       <c r="S4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="119"/>
+      <c r="T4" s="118"/>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="75"/>
@@ -9765,7 +9771,7 @@
       <c r="D5" s="73"/>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
-      <c r="G5" s="124"/>
+      <c r="G5" s="123"/>
       <c r="H5" s="29">
         <v>1</v>
       </c>
@@ -9786,7 +9792,7 @@
         <v>26</v>
       </c>
       <c r="S5" s="29"/>
-      <c r="T5" s="120"/>
+      <c r="T5" s="119"/>
     </row>
     <row r="6" spans="1:20" ht="72.599999999999994">
       <c r="A6" s="5">
@@ -9804,10 +9810,10 @@
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="104"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="29">
         <v>2</v>
       </c>
@@ -9836,7 +9842,7 @@
       <c r="S6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="120">
+      <c r="T6" s="119">
         <v>1</v>
       </c>
     </row>
@@ -9853,13 +9859,13 @@
       <c r="D7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="105"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
@@ -9872,26 +9878,28 @@
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
       <c r="S7" s="29"/>
-      <c r="T7" s="120"/>
+      <c r="T7" s="119"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="77"/>
+      <c r="B8" s="126">
+        <v>3</v>
+      </c>
       <c r="C8" s="24">
         <v>1</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="102">
+      <c r="G8" s="101">
         <v>23255</v>
       </c>
       <c r="H8" s="29"/>
@@ -9906,7 +9914,7 @@
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
-      <c r="T8" s="120"/>
+      <c r="T8" s="119"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="30"/>
@@ -9915,7 +9923,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="124"/>
+      <c r="G9" s="123"/>
       <c r="H9" s="29">
         <v>2</v>
       </c>
@@ -9933,7 +9941,7 @@
       <c r="Q9" s="29"/>
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
-      <c r="T9" s="120"/>
+      <c r="T9" s="119"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="30"/>
@@ -9942,7 +9950,7 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="124"/>
+      <c r="G10" s="123"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -9957,7 +9965,7 @@
       <c r="Q10" s="29"/>
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
-      <c r="T10" s="120"/>
+      <c r="T10" s="119"/>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1">
       <c r="A11" s="30"/>
@@ -9966,7 +9974,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="124"/>
+      <c r="G11" s="123"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -9979,7 +9987,7 @@
       <c r="Q11" s="29"/>
       <c r="R11" s="29"/>
       <c r="S11" s="29"/>
-      <c r="T11" s="120"/>
+      <c r="T11" s="119"/>
     </row>
     <row r="12" spans="1:20" ht="72.599999999999994">
       <c r="A12" s="5">
@@ -10000,7 +10008,7 @@
       <c r="F12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="104"/>
+      <c r="G12" s="103"/>
       <c r="H12" s="29">
         <v>3</v>
       </c>
@@ -10029,7 +10037,7 @@
       <c r="S12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="120">
+      <c r="T12" s="119">
         <v>1</v>
       </c>
     </row>
@@ -10046,13 +10054,13 @@
       <c r="D13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="106"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -10065,26 +10073,28 @@
       <c r="Q13" s="29"/>
       <c r="R13" s="29"/>
       <c r="S13" s="29"/>
-      <c r="T13" s="120"/>
+      <c r="T13" s="119"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="79">
-        <v>1</v>
-      </c>
-      <c r="B14" s="32"/>
+      <c r="A14" s="78">
+        <v>1</v>
+      </c>
+      <c r="B14" s="127">
+        <v>3</v>
+      </c>
       <c r="C14" s="28">
         <v>1</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="99">
+      <c r="G14" s="98">
         <v>23255</v>
       </c>
       <c r="H14" s="29"/>
@@ -10099,13 +10109,15 @@
       <c r="Q14" s="29"/>
       <c r="R14" s="29"/>
       <c r="S14" s="29"/>
-      <c r="T14" s="120"/>
+      <c r="T14" s="119"/>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1">
       <c r="A15" s="13">
         <v>2</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="128">
+        <v>3</v>
+      </c>
       <c r="C15" s="15">
         <v>1</v>
       </c>
@@ -10118,7 +10130,7 @@
       <c r="F15" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="100">
+      <c r="G15" s="99">
         <v>16102</v>
       </c>
       <c r="H15" s="29"/>
@@ -10133,7 +10145,7 @@
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
-      <c r="T15" s="120"/>
+      <c r="T15" s="119"/>
     </row>
     <row r="16" spans="1:20" ht="72.599999999999994">
       <c r="A16" s="30"/>
@@ -10142,7 +10154,7 @@
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="124"/>
+      <c r="G16" s="123"/>
       <c r="H16" s="29">
         <v>4</v>
       </c>
@@ -10163,7 +10175,7 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="120"/>
+      <c r="T16" s="119"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="30"/>
@@ -10172,7 +10184,7 @@
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="124"/>
+      <c r="G17" s="123"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
@@ -10185,7 +10197,7 @@
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="120"/>
+      <c r="T17" s="119"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="30"/>
@@ -10194,7 +10206,7 @@
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="124"/>
+      <c r="G18" s="123"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
@@ -10207,7 +10219,7 @@
       <c r="Q18" s="29"/>
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
-      <c r="T18" s="120"/>
+      <c r="T18" s="119"/>
     </row>
     <row r="19" spans="1:20" ht="15" thickBot="1">
       <c r="A19" s="30"/>
@@ -10216,7 +10228,7 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="124"/>
+      <c r="G19" s="123"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
@@ -10229,7 +10241,7 @@
       <c r="Q19" s="29"/>
       <c r="R19" s="29"/>
       <c r="S19" s="29"/>
-      <c r="T19" s="120"/>
+      <c r="T19" s="119"/>
     </row>
     <row r="20" spans="1:20" ht="72.599999999999994">
       <c r="A20" s="5">
@@ -10250,7 +10262,7 @@
       <c r="F20" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="104"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="29">
         <v>5</v>
       </c>
@@ -10279,30 +10291,30 @@
       <c r="S20" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T20" s="120">
+      <c r="T20" s="119">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1">
-      <c r="A21" s="82">
-        <v>2</v>
-      </c>
-      <c r="B21" s="83">
-        <v>2</v>
-      </c>
-      <c r="C21" s="81">
-        <v>1</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="81" t="s">
+      <c r="A21" s="81">
+        <v>2</v>
+      </c>
+      <c r="B21" s="82">
+        <v>2</v>
+      </c>
+      <c r="C21" s="80">
+        <v>1</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="88" t="s">
+      <c r="F21" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="107"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -10315,26 +10327,28 @@
       <c r="Q21" s="29"/>
       <c r="R21" s="29"/>
       <c r="S21" s="29"/>
-      <c r="T21" s="120"/>
+      <c r="T21" s="119"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="79">
-        <v>1</v>
-      </c>
-      <c r="B22" s="32"/>
+      <c r="A22" s="78">
+        <v>1</v>
+      </c>
+      <c r="B22" s="127">
+        <v>3</v>
+      </c>
       <c r="C22" s="28">
         <v>1</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="99">
+      <c r="G22" s="98">
         <v>22302</v>
       </c>
       <c r="H22" s="29"/>
@@ -10349,13 +10363,15 @@
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
-      <c r="T22" s="120"/>
+      <c r="T22" s="119"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="6">
         <v>2</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="127">
+        <v>3</v>
+      </c>
       <c r="C23" s="8">
         <v>1</v>
       </c>
@@ -10365,10 +10381,10 @@
       <c r="E23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="F23" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="101">
+      <c r="G23" s="100">
         <v>20122</v>
       </c>
       <c r="H23" s="29"/>
@@ -10383,13 +10399,15 @@
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
       <c r="S23" s="29"/>
-      <c r="T23" s="120"/>
+      <c r="T23" s="119"/>
     </row>
     <row r="24" spans="1:20" ht="29.45" thickBot="1">
       <c r="A24" s="13">
         <v>3</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="128">
+        <v>3</v>
+      </c>
       <c r="C24" s="15">
         <v>8</v>
       </c>
@@ -10402,7 +10420,7 @@
       <c r="F24" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="100"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
@@ -10415,7 +10433,7 @@
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
       <c r="S24" s="29"/>
-      <c r="T24" s="120"/>
+      <c r="T24" s="119"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="30"/>
@@ -10424,7 +10442,7 @@
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
-      <c r="G25" s="124"/>
+      <c r="G25" s="123"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -10437,7 +10455,7 @@
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
-      <c r="T25" s="120"/>
+      <c r="T25" s="119"/>
     </row>
     <row r="26" spans="1:20" ht="29.1">
       <c r="A26" s="30"/>
@@ -10446,7 +10464,7 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
-      <c r="G26" s="124"/>
+      <c r="G26" s="123"/>
       <c r="H26" s="29">
         <v>5</v>
       </c>
@@ -10467,7 +10485,7 @@
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="29"/>
-      <c r="T26" s="120"/>
+      <c r="T26" s="119"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="30"/>
@@ -10476,7 +10494,7 @@
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
-      <c r="G27" s="124"/>
+      <c r="G27" s="123"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
@@ -10489,7 +10507,7 @@
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="29"/>
-      <c r="T27" s="120"/>
+      <c r="T27" s="119"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="30"/>
@@ -10498,7 +10516,7 @@
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="124"/>
+      <c r="G28" s="123"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
@@ -10511,7 +10529,7 @@
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
-      <c r="T28" s="120"/>
+      <c r="T28" s="119"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="30"/>
@@ -10520,7 +10538,7 @@
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
-      <c r="G29" s="124"/>
+      <c r="G29" s="123"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
@@ -10533,7 +10551,7 @@
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
-      <c r="T29" s="120"/>
+      <c r="T29" s="119"/>
     </row>
     <row r="30" spans="1:20" ht="15" thickBot="1">
       <c r="A30" s="30"/>
@@ -10542,7 +10560,7 @@
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
-      <c r="G30" s="124"/>
+      <c r="G30" s="123"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
@@ -10555,7 +10573,7 @@
       <c r="Q30" s="29"/>
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
-      <c r="T30" s="120"/>
+      <c r="T30" s="119"/>
     </row>
     <row r="31" spans="1:20" ht="72.599999999999994">
       <c r="A31" s="5">
@@ -10576,7 +10594,7 @@
       <c r="F31" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="104"/>
+      <c r="G31" s="103"/>
       <c r="H31" s="29">
         <v>6</v>
       </c>
@@ -10605,30 +10623,30 @@
       <c r="S31" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T31" s="120">
+      <c r="T31" s="119">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1">
-      <c r="A32" s="82">
-        <v>2</v>
-      </c>
-      <c r="B32" s="83">
-        <v>2</v>
-      </c>
-      <c r="C32" s="81">
-        <v>1</v>
-      </c>
-      <c r="D32" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="81" t="s">
+      <c r="A32" s="81">
+        <v>2</v>
+      </c>
+      <c r="B32" s="82">
+        <v>2</v>
+      </c>
+      <c r="C32" s="80">
+        <v>1</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="88" t="s">
+      <c r="F32" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="107"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
@@ -10641,26 +10659,28 @@
       <c r="Q32" s="29"/>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
-      <c r="T32" s="120"/>
+      <c r="T32" s="119"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="79">
-        <v>1</v>
-      </c>
-      <c r="B33" s="32"/>
+      <c r="A33" s="78">
+        <v>1</v>
+      </c>
+      <c r="B33" s="127">
+        <v>3</v>
+      </c>
       <c r="C33" s="28">
         <v>1</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F33" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="99">
+      <c r="G33" s="98">
         <v>23255</v>
       </c>
       <c r="H33" s="29"/>
@@ -10675,13 +10695,15 @@
       <c r="Q33" s="29"/>
       <c r="R33" s="29"/>
       <c r="S33" s="29"/>
-      <c r="T33" s="120"/>
+      <c r="T33" s="119"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="6">
         <v>2</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="127">
+        <v>3</v>
+      </c>
       <c r="C34" s="8">
         <v>1</v>
       </c>
@@ -10691,10 +10713,10 @@
       <c r="E34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="89" t="s">
+      <c r="F34" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="101">
+      <c r="G34" s="100">
         <v>20122</v>
       </c>
       <c r="H34" s="29"/>
@@ -10709,13 +10731,15 @@
       <c r="Q34" s="29"/>
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
-      <c r="T34" s="120"/>
+      <c r="T34" s="119"/>
     </row>
     <row r="35" spans="1:20" ht="29.45" thickBot="1">
       <c r="A35" s="13">
         <v>3</v>
       </c>
-      <c r="B35" s="14"/>
+      <c r="B35" s="128">
+        <v>3</v>
+      </c>
       <c r="C35" s="15">
         <v>8</v>
       </c>
@@ -10728,7 +10752,7 @@
       <c r="F35" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="100"/>
+      <c r="G35" s="99"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
@@ -10741,7 +10765,7 @@
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
       <c r="S35" s="29"/>
-      <c r="T35" s="120"/>
+      <c r="T35" s="119"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="30"/>
@@ -10750,7 +10774,7 @@
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
-      <c r="G36" s="124"/>
+      <c r="G36" s="123"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
@@ -10763,7 +10787,7 @@
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
       <c r="S36" s="29"/>
-      <c r="T36" s="120"/>
+      <c r="T36" s="119"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="30"/>
@@ -10772,7 +10796,7 @@
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
-      <c r="G37" s="124"/>
+      <c r="G37" s="123"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
@@ -10785,7 +10809,7 @@
       <c r="Q37" s="29"/>
       <c r="R37" s="29"/>
       <c r="S37" s="29"/>
-      <c r="T37" s="120"/>
+      <c r="T37" s="119"/>
     </row>
     <row r="38" spans="1:20" ht="29.1">
       <c r="A38" s="30"/>
@@ -10794,7 +10818,7 @@
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
-      <c r="G38" s="124"/>
+      <c r="G38" s="123"/>
       <c r="H38" s="29">
         <v>6</v>
       </c>
@@ -10815,7 +10839,7 @@
       <c r="Q38" s="29"/>
       <c r="R38" s="29"/>
       <c r="S38" s="29"/>
-      <c r="T38" s="120"/>
+      <c r="T38" s="119"/>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="30"/>
@@ -10824,7 +10848,7 @@
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
-      <c r="G39" s="124"/>
+      <c r="G39" s="123"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
@@ -10837,7 +10861,7 @@
       <c r="Q39" s="29"/>
       <c r="R39" s="29"/>
       <c r="S39" s="29"/>
-      <c r="T39" s="120"/>
+      <c r="T39" s="119"/>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="30"/>
@@ -10846,7 +10870,7 @@
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
-      <c r="G40" s="124"/>
+      <c r="G40" s="123"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
@@ -10859,7 +10883,7 @@
       <c r="Q40" s="29"/>
       <c r="R40" s="29"/>
       <c r="S40" s="29"/>
-      <c r="T40" s="120"/>
+      <c r="T40" s="119"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="30"/>
@@ -10868,7 +10892,7 @@
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
-      <c r="G41" s="124"/>
+      <c r="G41" s="123"/>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
@@ -10881,7 +10905,7 @@
       <c r="Q41" s="29"/>
       <c r="R41" s="29"/>
       <c r="S41" s="29"/>
-      <c r="T41" s="120"/>
+      <c r="T41" s="119"/>
     </row>
     <row r="42" spans="1:20" ht="15" thickBot="1">
       <c r="A42" s="30"/>
@@ -10890,7 +10914,7 @@
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
-      <c r="G42" s="124"/>
+      <c r="G42" s="123"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
@@ -10903,7 +10927,7 @@
       <c r="Q42" s="29"/>
       <c r="R42" s="29"/>
       <c r="S42" s="29"/>
-      <c r="T42" s="120"/>
+      <c r="T42" s="119"/>
     </row>
     <row r="43" spans="1:20" ht="57.95">
       <c r="A43" s="5">
@@ -10924,7 +10948,7 @@
       <c r="F43" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="104"/>
+      <c r="G43" s="103"/>
       <c r="H43" s="29">
         <v>7</v>
       </c>
@@ -10957,28 +10981,28 @@
       <c r="S43" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="T43" s="120"/>
+      <c r="T43" s="119"/>
     </row>
     <row r="44" spans="1:20" ht="29.45" thickBot="1">
-      <c r="A44" s="82">
-        <v>2</v>
-      </c>
-      <c r="B44" s="83">
-        <v>2</v>
-      </c>
-      <c r="C44" s="81">
-        <v>1</v>
-      </c>
-      <c r="D44" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="81" t="s">
+      <c r="A44" s="81">
+        <v>2</v>
+      </c>
+      <c r="B44" s="82">
+        <v>2</v>
+      </c>
+      <c r="C44" s="80">
+        <v>1</v>
+      </c>
+      <c r="D44" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="88" t="s">
+      <c r="F44" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="107"/>
+      <c r="G44" s="106"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
@@ -10997,26 +11021,28 @@
       <c r="S44" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="T44" s="120"/>
+      <c r="T44" s="119"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="79">
-        <v>1</v>
-      </c>
-      <c r="B45" s="32"/>
+      <c r="A45" s="78">
+        <v>1</v>
+      </c>
+      <c r="B45" s="127">
+        <v>3</v>
+      </c>
       <c r="C45" s="28">
         <v>1</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="80" t="s">
+      <c r="E45" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="87" t="s">
+      <c r="F45" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="99">
+      <c r="G45" s="98">
         <v>23255</v>
       </c>
       <c r="H45" s="29"/>
@@ -11031,13 +11057,15 @@
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
-      <c r="T45" s="120"/>
+      <c r="T45" s="119"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="6">
         <v>2</v>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="127">
+        <v>3</v>
+      </c>
       <c r="C46" s="8">
         <v>1</v>
       </c>
@@ -11047,10 +11075,10 @@
       <c r="E46" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="89" t="s">
+      <c r="F46" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="101">
+      <c r="G46" s="100">
         <v>20122</v>
       </c>
       <c r="H46" s="29"/>
@@ -11065,13 +11093,15 @@
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
-      <c r="T46" s="120"/>
+      <c r="T46" s="119"/>
     </row>
     <row r="47" spans="1:20" ht="29.45" thickBot="1">
       <c r="A47" s="13">
         <v>3</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="128">
+        <v>3</v>
+      </c>
       <c r="C47" s="15">
         <v>8</v>
       </c>
@@ -11084,7 +11114,7 @@
       <c r="F47" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="100">
+      <c r="G47" s="99">
         <v>16122</v>
       </c>
       <c r="H47" s="29"/>
@@ -11099,7 +11129,7 @@
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
-      <c r="T47" s="120"/>
+      <c r="T47" s="119"/>
     </row>
     <row r="48" spans="1:20" ht="15" thickBot="1">
       <c r="A48" s="30"/>
@@ -11108,7 +11138,7 @@
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
-      <c r="G48" s="124"/>
+      <c r="G48" s="123"/>
       <c r="H48" s="29">
         <v>7</v>
       </c>
@@ -11129,7 +11159,7 @@
       <c r="Q48" s="29"/>
       <c r="R48" s="29"/>
       <c r="S48" s="29"/>
-      <c r="T48" s="120"/>
+      <c r="T48" s="119"/>
     </row>
     <row r="49" spans="1:20" ht="72.599999999999994">
       <c r="A49" s="5">
@@ -11150,7 +11180,7 @@
       <c r="F49" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="104"/>
+      <c r="G49" s="103"/>
       <c r="H49" s="29">
         <v>8</v>
       </c>
@@ -11179,7 +11209,7 @@
       <c r="S49" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T49" s="120">
+      <c r="T49" s="119">
         <v>1</v>
       </c>
     </row>
@@ -11199,10 +11229,10 @@
       <c r="E50" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="90" t="s">
+      <c r="F50" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="108"/>
+      <c r="G50" s="107"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
@@ -11215,20 +11245,28 @@
       <c r="Q50" s="29"/>
       <c r="R50" s="29"/>
       <c r="S50" s="29"/>
-      <c r="T50" s="120"/>
+      <c r="T50" s="119"/>
     </row>
     <row r="51" spans="1:20" ht="15" thickBot="1">
-      <c r="A51" s="82"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81" t="s">
+      <c r="A51" s="81">
+        <v>3</v>
+      </c>
+      <c r="B51" s="82">
+        <v>2</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="88" t="s">
+      <c r="F51" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="G51" s="109"/>
+      <c r="G51" s="108"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
@@ -11241,20 +11279,28 @@
       <c r="Q51" s="29"/>
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
-      <c r="T51" s="120"/>
+      <c r="T51" s="119"/>
     </row>
     <row r="52" spans="1:20" ht="15" thickBot="1">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="23">
+        <v>1</v>
+      </c>
+      <c r="B52" s="24">
+        <v>3</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E52" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="91" t="s">
+      <c r="F52" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="G52" s="110">
+      <c r="G52" s="109">
         <v>11322</v>
       </c>
       <c r="H52" s="29"/>
@@ -11269,7 +11315,7 @@
       <c r="Q52" s="29"/>
       <c r="R52" s="29"/>
       <c r="S52" s="29"/>
-      <c r="T52" s="120"/>
+      <c r="T52" s="119"/>
     </row>
     <row r="53" spans="1:20" ht="15" thickBot="1">
       <c r="A53" s="30"/>
@@ -11278,7 +11324,7 @@
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
-      <c r="G53" s="125"/>
+      <c r="G53" s="124"/>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
@@ -11291,7 +11337,7 @@
       <c r="Q53" s="29"/>
       <c r="R53" s="29"/>
       <c r="S53" s="29"/>
-      <c r="T53" s="120"/>
+      <c r="T53" s="119"/>
     </row>
     <row r="54" spans="1:20" ht="72.599999999999994">
       <c r="A54" s="5">
@@ -11312,7 +11358,7 @@
       <c r="F54" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="104"/>
+      <c r="G54" s="103"/>
       <c r="H54" s="29">
         <v>9</v>
       </c>
@@ -11341,7 +11387,7 @@
       <c r="S54" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T54" s="120">
+      <c r="T54" s="119">
         <v>1</v>
       </c>
     </row>
@@ -11361,10 +11407,10 @@
       <c r="E55" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="90" t="s">
+      <c r="F55" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="108"/>
+      <c r="G55" s="107"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
@@ -11377,24 +11423,28 @@
       <c r="Q55" s="29"/>
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
-      <c r="T55" s="120"/>
+      <c r="T55" s="119"/>
     </row>
     <row r="56" spans="1:20" ht="15" thickBot="1">
-      <c r="A56" s="82"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81">
-        <v>1</v>
-      </c>
-      <c r="D56" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="81" t="s">
+      <c r="A56" s="81">
+        <v>3</v>
+      </c>
+      <c r="B56" s="82">
+        <v>2</v>
+      </c>
+      <c r="C56" s="80">
+        <v>1</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F56" s="88" t="s">
+      <c r="F56" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="G56" s="107"/>
+      <c r="G56" s="106"/>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
@@ -11407,11 +11457,15 @@
       <c r="Q56" s="29"/>
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
-      <c r="T56" s="120"/>
+      <c r="T56" s="119"/>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="79"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="78">
+        <v>1</v>
+      </c>
+      <c r="B57" s="28">
+        <v>3</v>
+      </c>
       <c r="C57" s="28">
         <v>1</v>
       </c>
@@ -11421,10 +11475,10 @@
       <c r="E57" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F57" s="92" t="s">
+      <c r="F57" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="111">
+      <c r="G57" s="110">
         <v>11322</v>
       </c>
       <c r="H57" s="29"/>
@@ -11439,11 +11493,15 @@
       <c r="Q57" s="29"/>
       <c r="R57" s="29"/>
       <c r="S57" s="29"/>
-      <c r="T57" s="120"/>
+      <c r="T57" s="119"/>
     </row>
     <row r="58" spans="1:20" ht="15" thickBot="1">
-      <c r="A58" s="13"/>
-      <c r="B58" s="15"/>
+      <c r="A58" s="13">
+        <v>2</v>
+      </c>
+      <c r="B58" s="15">
+        <v>3</v>
+      </c>
       <c r="C58" s="74">
         <v>6</v>
       </c>
@@ -11453,10 +11511,10 @@
       <c r="E58" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F58" s="93" t="s">
+      <c r="F58" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="112">
+      <c r="G58" s="111">
         <v>16122</v>
       </c>
       <c r="H58" s="29"/>
@@ -11471,7 +11529,7 @@
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
-      <c r="T58" s="120"/>
+      <c r="T58" s="119"/>
     </row>
     <row r="59" spans="1:20" ht="15" thickBot="1">
       <c r="A59" s="30"/>
@@ -11480,7 +11538,7 @@
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
       <c r="F59" s="29"/>
-      <c r="G59" s="124"/>
+      <c r="G59" s="123"/>
       <c r="H59" s="29"/>
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
@@ -11493,7 +11551,7 @@
       <c r="Q59" s="29"/>
       <c r="R59" s="29"/>
       <c r="S59" s="29"/>
-      <c r="T59" s="120"/>
+      <c r="T59" s="119"/>
     </row>
     <row r="60" spans="1:20" ht="57.95">
       <c r="A60" s="5">
@@ -11514,7 +11572,7 @@
       <c r="F60" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="104"/>
+      <c r="G60" s="103"/>
       <c r="H60" s="29">
         <v>10</v>
       </c>
@@ -11547,7 +11605,7 @@
       <c r="S60" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="T60" s="120"/>
+      <c r="T60" s="119"/>
     </row>
     <row r="61" spans="1:20" ht="29.1">
       <c r="A61" s="6">
@@ -11565,10 +11623,10 @@
       <c r="E61" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="90" t="s">
+      <c r="F61" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="108"/>
+      <c r="G61" s="107"/>
       <c r="H61" s="29">
         <v>11</v>
       </c>
@@ -11595,24 +11653,28 @@
       <c r="S61" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="T61" s="120"/>
+      <c r="T61" s="119"/>
     </row>
     <row r="62" spans="1:20" ht="15" thickBot="1">
-      <c r="A62" s="82"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="81">
-        <v>1</v>
-      </c>
-      <c r="D62" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="81" t="s">
+      <c r="A62" s="81">
+        <v>3</v>
+      </c>
+      <c r="B62" s="82">
+        <v>2</v>
+      </c>
+      <c r="C62" s="80">
+        <v>1</v>
+      </c>
+      <c r="D62" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="88" t="s">
+      <c r="F62" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="G62" s="107"/>
+      <c r="G62" s="106"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
@@ -11625,11 +11687,15 @@
       <c r="Q62" s="29"/>
       <c r="R62" s="29"/>
       <c r="S62" s="29"/>
-      <c r="T62" s="120"/>
+      <c r="T62" s="119"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="79"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="78">
+        <v>1</v>
+      </c>
+      <c r="B63" s="28">
+        <v>3</v>
+      </c>
       <c r="C63" s="28">
         <v>1</v>
       </c>
@@ -11639,10 +11705,10 @@
       <c r="E63" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F63" s="92" t="s">
+      <c r="F63" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="G63" s="111">
+      <c r="G63" s="110">
         <v>11322</v>
       </c>
       <c r="H63" s="29"/>
@@ -11657,11 +11723,15 @@
       <c r="Q63" s="29"/>
       <c r="R63" s="29"/>
       <c r="S63" s="29"/>
-      <c r="T63" s="120"/>
+      <c r="T63" s="119"/>
     </row>
     <row r="64" spans="1:20" ht="15" thickBot="1">
-      <c r="A64" s="13"/>
-      <c r="B64" s="15"/>
+      <c r="A64" s="13">
+        <v>2</v>
+      </c>
+      <c r="B64" s="15">
+        <v>3</v>
+      </c>
       <c r="C64" s="74">
         <v>6</v>
       </c>
@@ -11671,10 +11741,10 @@
       <c r="E64" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F64" s="93" t="s">
+      <c r="F64" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="112">
+      <c r="G64" s="111">
         <v>16122</v>
       </c>
       <c r="H64" s="29"/>
@@ -11689,7 +11759,7 @@
       <c r="Q64" s="29"/>
       <c r="R64" s="29"/>
       <c r="S64" s="29"/>
-      <c r="T64" s="120"/>
+      <c r="T64" s="119"/>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="30"/>
@@ -11698,7 +11768,7 @@
       <c r="D65" s="29"/>
       <c r="E65" s="29"/>
       <c r="F65" s="29"/>
-      <c r="G65" s="124"/>
+      <c r="G65" s="123"/>
       <c r="H65" s="29"/>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
@@ -11711,7 +11781,7 @@
       <c r="Q65" s="29"/>
       <c r="R65" s="29"/>
       <c r="S65" s="29"/>
-      <c r="T65" s="120"/>
+      <c r="T65" s="119"/>
     </row>
     <row r="66" spans="1:20" ht="43.5">
       <c r="A66" s="30"/>
@@ -11720,7 +11790,7 @@
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
-      <c r="G66" s="124"/>
+      <c r="G66" s="123"/>
       <c r="H66" s="29">
         <v>12</v>
       </c>
@@ -11741,7 +11811,7 @@
       <c r="Q66" s="29"/>
       <c r="R66" s="29"/>
       <c r="S66" s="29"/>
-      <c r="T66" s="120"/>
+      <c r="T66" s="119"/>
     </row>
     <row r="67" spans="1:20" ht="43.5">
       <c r="A67" s="30"/>
@@ -11750,7 +11820,7 @@
       <c r="D67" s="29"/>
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
-      <c r="G67" s="124"/>
+      <c r="G67" s="123"/>
       <c r="H67" s="29">
         <v>12</v>
       </c>
@@ -11771,7 +11841,7 @@
       <c r="Q67" s="29"/>
       <c r="R67" s="29"/>
       <c r="S67" s="29"/>
-      <c r="T67" s="120"/>
+      <c r="T67" s="119"/>
     </row>
     <row r="68" spans="1:20" ht="43.5">
       <c r="A68" s="30"/>
@@ -11780,7 +11850,7 @@
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
       <c r="F68" s="29"/>
-      <c r="G68" s="124"/>
+      <c r="G68" s="123"/>
       <c r="H68" s="29">
         <v>12</v>
       </c>
@@ -11801,7 +11871,7 @@
       <c r="Q68" s="29"/>
       <c r="R68" s="29"/>
       <c r="S68" s="29"/>
-      <c r="T68" s="120"/>
+      <c r="T68" s="119"/>
     </row>
     <row r="69" spans="1:20" ht="44.1" thickBot="1">
       <c r="A69" s="30"/>
@@ -11810,7 +11880,7 @@
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
-      <c r="G69" s="124"/>
+      <c r="G69" s="123"/>
       <c r="H69" s="29">
         <v>12</v>
       </c>
@@ -11831,7 +11901,7 @@
       <c r="Q69" s="29"/>
       <c r="R69" s="29"/>
       <c r="S69" s="29"/>
-      <c r="T69" s="120"/>
+      <c r="T69" s="119"/>
     </row>
     <row r="70" spans="1:20" ht="72.599999999999994">
       <c r="A70" s="5">
@@ -11852,7 +11922,7 @@
       <c r="F70" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G70" s="104"/>
+      <c r="G70" s="103"/>
       <c r="H70" s="29">
         <v>13</v>
       </c>
@@ -11881,7 +11951,7 @@
       <c r="S70" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T70" s="120">
+      <c r="T70" s="119">
         <v>1</v>
       </c>
     </row>
@@ -11901,10 +11971,10 @@
       <c r="E71" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F71" s="90" t="s">
+      <c r="F71" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="108"/>
+      <c r="G71" s="107"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
@@ -11917,20 +11987,28 @@
       <c r="Q71" s="29"/>
       <c r="R71" s="29"/>
       <c r="S71" s="29"/>
-      <c r="T71" s="120"/>
+      <c r="T71" s="119"/>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="A72" s="6">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7">
+        <v>2</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E72" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F72" s="90" t="s">
+      <c r="F72" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="G72" s="108"/>
+      <c r="G72" s="107"/>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
@@ -11943,28 +12021,28 @@
       <c r="Q72" s="29"/>
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
-      <c r="T72" s="120"/>
+      <c r="T72" s="119"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1">
-      <c r="A73" s="82">
-        <v>3</v>
-      </c>
-      <c r="B73" s="83">
-        <v>2</v>
-      </c>
-      <c r="C73" s="81">
-        <v>1</v>
-      </c>
-      <c r="D73" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="81" t="s">
+      <c r="A73" s="81">
+        <v>4</v>
+      </c>
+      <c r="B73" s="82">
+        <v>2</v>
+      </c>
+      <c r="C73" s="80">
+        <v>1</v>
+      </c>
+      <c r="D73" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F73" s="88" t="s">
+      <c r="F73" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="G73" s="107"/>
+      <c r="G73" s="106"/>
       <c r="H73" s="29"/>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
@@ -11977,26 +12055,28 @@
       <c r="Q73" s="29"/>
       <c r="R73" s="29"/>
       <c r="S73" s="29"/>
-      <c r="T73" s="120"/>
+      <c r="T73" s="119"/>
     </row>
     <row r="74" spans="1:20" ht="29.45" thickBot="1">
       <c r="A74" s="23">
         <v>1</v>
       </c>
-      <c r="B74" s="77"/>
+      <c r="B74" s="126">
+        <v>3</v>
+      </c>
       <c r="C74" s="24">
         <v>1</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="78" t="s">
+      <c r="E74" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="F74" s="86" t="s">
+      <c r="F74" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G74" s="113">
+      <c r="G74" s="112">
         <v>11111</v>
       </c>
       <c r="H74" s="29"/>
@@ -12011,7 +12091,7 @@
       <c r="Q74" s="29"/>
       <c r="R74" s="29"/>
       <c r="S74" s="29"/>
-      <c r="T74" s="120"/>
+      <c r="T74" s="119"/>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="30"/>
@@ -12020,7 +12100,7 @@
       <c r="D75" s="29"/>
       <c r="E75" s="34"/>
       <c r="F75" s="29"/>
-      <c r="G75" s="124"/>
+      <c r="G75" s="123"/>
       <c r="H75" s="29"/>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
@@ -12033,7 +12113,7 @@
       <c r="Q75" s="29"/>
       <c r="R75" s="29"/>
       <c r="S75" s="29"/>
-      <c r="T75" s="120"/>
+      <c r="T75" s="119"/>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="30"/>
@@ -12042,7 +12122,7 @@
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
-      <c r="G76" s="124"/>
+      <c r="G76" s="123"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
@@ -12055,7 +12135,7 @@
       <c r="Q76" s="29"/>
       <c r="R76" s="29"/>
       <c r="S76" s="29"/>
-      <c r="T76" s="120"/>
+      <c r="T76" s="119"/>
     </row>
     <row r="77" spans="1:20" ht="57.95">
       <c r="A77" s="30"/>
@@ -12064,7 +12144,7 @@
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
-      <c r="G77" s="124"/>
+      <c r="G77" s="123"/>
       <c r="H77" s="29">
         <v>14</v>
       </c>
@@ -12085,7 +12165,7 @@
       <c r="Q77" s="29"/>
       <c r="R77" s="29"/>
       <c r="S77" s="29"/>
-      <c r="T77" s="120"/>
+      <c r="T77" s="119"/>
     </row>
     <row r="78" spans="1:20" ht="57.95">
       <c r="A78" s="30"/>
@@ -12094,7 +12174,7 @@
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
-      <c r="G78" s="124"/>
+      <c r="G78" s="123"/>
       <c r="H78" s="29">
         <v>15</v>
       </c>
@@ -12115,7 +12195,7 @@
       <c r="Q78" s="29"/>
       <c r="R78" s="29"/>
       <c r="S78" s="29"/>
-      <c r="T78" s="120"/>
+      <c r="T78" s="119"/>
     </row>
     <row r="79" spans="1:20" ht="57.95">
       <c r="A79" s="30"/>
@@ -12124,7 +12204,7 @@
       <c r="D79" s="29"/>
       <c r="E79" s="29"/>
       <c r="F79" s="29"/>
-      <c r="G79" s="124"/>
+      <c r="G79" s="123"/>
       <c r="H79" s="29">
         <v>16</v>
       </c>
@@ -12145,7 +12225,7 @@
       <c r="Q79" s="29"/>
       <c r="R79" s="29"/>
       <c r="S79" s="29"/>
-      <c r="T79" s="120"/>
+      <c r="T79" s="119"/>
     </row>
     <row r="80" spans="1:20" ht="57.95">
       <c r="A80" s="30"/>
@@ -12154,7 +12234,7 @@
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
-      <c r="G80" s="124"/>
+      <c r="G80" s="123"/>
       <c r="H80" s="29">
         <v>17</v>
       </c>
@@ -12175,7 +12255,7 @@
       <c r="Q80" s="29"/>
       <c r="R80" s="29"/>
       <c r="S80" s="29"/>
-      <c r="T80" s="120"/>
+      <c r="T80" s="119"/>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="30"/>
@@ -12184,7 +12264,7 @@
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
-      <c r="G81" s="124"/>
+      <c r="G81" s="123"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
@@ -12197,7 +12277,7 @@
       <c r="Q81" s="29"/>
       <c r="R81" s="29"/>
       <c r="S81" s="29"/>
-      <c r="T81" s="120"/>
+      <c r="T81" s="119"/>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="30"/>
@@ -12206,7 +12286,7 @@
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
-      <c r="G82" s="124"/>
+      <c r="G82" s="123"/>
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
@@ -12219,7 +12299,7 @@
       <c r="Q82" s="29"/>
       <c r="R82" s="29"/>
       <c r="S82" s="29"/>
-      <c r="T82" s="120"/>
+      <c r="T82" s="119"/>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="30"/>
@@ -12228,7 +12308,7 @@
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
-      <c r="G83" s="124"/>
+      <c r="G83" s="123"/>
       <c r="H83" s="29"/>
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
@@ -12241,7 +12321,7 @@
       <c r="Q83" s="29"/>
       <c r="R83" s="29"/>
       <c r="S83" s="29"/>
-      <c r="T83" s="120"/>
+      <c r="T83" s="119"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1">
       <c r="A84" s="30"/>
@@ -12250,7 +12330,7 @@
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
-      <c r="G84" s="124"/>
+      <c r="G84" s="123"/>
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
@@ -12263,7 +12343,7 @@
       <c r="Q84" s="29"/>
       <c r="R84" s="29"/>
       <c r="S84" s="29"/>
-      <c r="T84" s="120"/>
+      <c r="T84" s="119"/>
     </row>
     <row r="85" spans="1:20" ht="72.599999999999994">
       <c r="A85" s="5">
@@ -12284,7 +12364,7 @@
       <c r="F85" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G85" s="104"/>
+      <c r="G85" s="103"/>
       <c r="H85" s="29">
         <v>18</v>
       </c>
@@ -12313,7 +12393,7 @@
       <c r="S85" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T85" s="120">
+      <c r="T85" s="119">
         <v>1</v>
       </c>
     </row>
@@ -12333,10 +12413,10 @@
       <c r="E86" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F86" s="90" t="s">
+      <c r="F86" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="G86" s="108"/>
+      <c r="G86" s="107"/>
       <c r="H86" s="29"/>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
@@ -12349,20 +12429,26 @@
       <c r="Q86" s="29"/>
       <c r="R86" s="29"/>
       <c r="S86" s="29"/>
-      <c r="T86" s="120"/>
+      <c r="T86" s="119"/>
     </row>
     <row r="87" spans="1:20">
-      <c r="A87" s="6"/>
+      <c r="A87" s="6">
+        <v>3</v>
+      </c>
       <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+      <c r="C87" s="8">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E87" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F87" s="90" t="s">
+      <c r="F87" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="G87" s="108"/>
+      <c r="G87" s="107"/>
       <c r="H87" s="29"/>
       <c r="I87" s="29"/>
       <c r="J87" s="29"/>
@@ -12375,28 +12461,28 @@
       <c r="Q87" s="29"/>
       <c r="R87" s="29"/>
       <c r="S87" s="29"/>
-      <c r="T87" s="120"/>
+      <c r="T87" s="119"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1">
-      <c r="A88" s="82">
-        <v>3</v>
-      </c>
-      <c r="B88" s="83">
-        <v>2</v>
-      </c>
-      <c r="C88" s="81">
-        <v>1</v>
-      </c>
-      <c r="D88" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E88" s="81" t="s">
+      <c r="A88" s="81">
+        <v>4</v>
+      </c>
+      <c r="B88" s="82">
+        <v>2</v>
+      </c>
+      <c r="C88" s="80">
+        <v>1</v>
+      </c>
+      <c r="D88" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F88" s="88" t="s">
+      <c r="F88" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="G88" s="107"/>
+      <c r="G88" s="106"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
       <c r="J88" s="29"/>
@@ -12409,26 +12495,28 @@
       <c r="Q88" s="29"/>
       <c r="R88" s="29"/>
       <c r="S88" s="29"/>
-      <c r="T88" s="120"/>
+      <c r="T88" s="119"/>
     </row>
     <row r="89" spans="1:20" ht="29.1">
-      <c r="A89" s="79">
-        <v>1</v>
-      </c>
-      <c r="B89" s="32"/>
+      <c r="A89" s="78">
+        <v>1</v>
+      </c>
+      <c r="B89" s="127">
+        <v>3</v>
+      </c>
       <c r="C89" s="28">
         <v>1</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E89" s="80" t="s">
+      <c r="E89" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="F89" s="87" t="s">
+      <c r="F89" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="G89" s="99">
+      <c r="G89" s="98">
         <v>11111</v>
       </c>
       <c r="H89" s="29"/>
@@ -12443,13 +12531,15 @@
       <c r="Q89" s="29"/>
       <c r="R89" s="29"/>
       <c r="S89" s="29"/>
-      <c r="T89" s="120"/>
+      <c r="T89" s="119"/>
     </row>
     <row r="90" spans="1:20" ht="29.45" thickBot="1">
       <c r="A90" s="13">
         <v>2</v>
       </c>
-      <c r="B90" s="14"/>
+      <c r="B90" s="128">
+        <v>3</v>
+      </c>
       <c r="C90" s="15">
         <v>2</v>
       </c>
@@ -12462,7 +12552,7 @@
       <c r="F90" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="G90" s="100">
+      <c r="G90" s="99">
         <v>14111</v>
       </c>
       <c r="H90" s="29"/>
@@ -12477,7 +12567,7 @@
       <c r="Q90" s="29"/>
       <c r="R90" s="29"/>
       <c r="S90" s="29"/>
-      <c r="T90" s="120"/>
+      <c r="T90" s="119"/>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="30"/>
@@ -12486,7 +12576,7 @@
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
       <c r="F91" s="29"/>
-      <c r="G91" s="124"/>
+      <c r="G91" s="123"/>
       <c r="H91" s="29"/>
       <c r="I91" s="29"/>
       <c r="J91" s="29"/>
@@ -12499,7 +12589,7 @@
       <c r="Q91" s="29"/>
       <c r="R91" s="29"/>
       <c r="S91" s="29"/>
-      <c r="T91" s="120"/>
+      <c r="T91" s="119"/>
     </row>
     <row r="92" spans="1:20" ht="44.1" thickBot="1">
       <c r="A92" s="30"/>
@@ -12508,7 +12598,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="29"/>
-      <c r="G92" s="124"/>
+      <c r="G92" s="123"/>
       <c r="H92" s="29">
         <v>19</v>
       </c>
@@ -12529,7 +12619,7 @@
       <c r="Q92" s="29"/>
       <c r="R92" s="29"/>
       <c r="S92" s="29"/>
-      <c r="T92" s="120"/>
+      <c r="T92" s="119"/>
     </row>
     <row r="93" spans="1:20" ht="72.599999999999994">
       <c r="A93" s="5">
@@ -12550,7 +12640,7 @@
       <c r="F93" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G93" s="104"/>
+      <c r="G93" s="103"/>
       <c r="H93" s="29">
         <v>19</v>
       </c>
@@ -12579,7 +12669,7 @@
       <c r="S93" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T93" s="120">
+      <c r="T93" s="119">
         <v>1</v>
       </c>
     </row>
@@ -12599,10 +12689,10 @@
       <c r="E94" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F94" s="90" t="s">
+      <c r="F94" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="G94" s="108"/>
+      <c r="G94" s="107"/>
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
       <c r="J94" s="29"/>
@@ -12615,20 +12705,26 @@
       <c r="Q94" s="29"/>
       <c r="R94" s="29"/>
       <c r="S94" s="29"/>
-      <c r="T94" s="120"/>
+      <c r="T94" s="119"/>
     </row>
     <row r="95" spans="1:20">
-      <c r="A95" s="6"/>
+      <c r="A95" s="6">
+        <v>3</v>
+      </c>
       <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+      <c r="C95" s="8">
+        <v>1</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E95" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F95" s="90" t="s">
+      <c r="F95" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="G95" s="108"/>
+      <c r="G95" s="107"/>
       <c r="H95" s="29"/>
       <c r="I95" s="29"/>
       <c r="J95" s="29"/>
@@ -12641,28 +12737,28 @@
       <c r="Q95" s="29"/>
       <c r="R95" s="29"/>
       <c r="S95" s="29"/>
-      <c r="T95" s="120"/>
+      <c r="T95" s="119"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1">
-      <c r="A96" s="82">
-        <v>3</v>
-      </c>
-      <c r="B96" s="83">
-        <v>2</v>
-      </c>
-      <c r="C96" s="81">
-        <v>1</v>
-      </c>
-      <c r="D96" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E96" s="81" t="s">
+      <c r="A96" s="81">
+        <v>4</v>
+      </c>
+      <c r="B96" s="82">
+        <v>2</v>
+      </c>
+      <c r="C96" s="80">
+        <v>1</v>
+      </c>
+      <c r="D96" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F96" s="88" t="s">
+      <c r="F96" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="G96" s="107"/>
+      <c r="G96" s="106"/>
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
       <c r="J96" s="29"/>
@@ -12675,26 +12771,28 @@
       <c r="Q96" s="29"/>
       <c r="R96" s="29"/>
       <c r="S96" s="29"/>
-      <c r="T96" s="120"/>
+      <c r="T96" s="119"/>
     </row>
     <row r="97" spans="1:21" ht="29.1">
-      <c r="A97" s="79">
-        <v>1</v>
-      </c>
-      <c r="B97" s="32"/>
+      <c r="A97" s="78">
+        <v>1</v>
+      </c>
+      <c r="B97" s="127">
+        <v>3</v>
+      </c>
       <c r="C97" s="28">
         <v>1</v>
       </c>
       <c r="D97" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="80" t="s">
+      <c r="E97" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="F97" s="87" t="s">
+      <c r="F97" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="G97" s="99">
+      <c r="G97" s="98">
         <v>11111</v>
       </c>
       <c r="H97" s="29"/>
@@ -12709,13 +12807,15 @@
       <c r="Q97" s="29"/>
       <c r="R97" s="29"/>
       <c r="S97" s="29"/>
-      <c r="T97" s="120"/>
+      <c r="T97" s="119"/>
     </row>
     <row r="98" spans="1:21" ht="29.45" thickBot="1">
       <c r="A98" s="13">
         <v>2</v>
       </c>
-      <c r="B98" s="14"/>
+      <c r="B98" s="128">
+        <v>3</v>
+      </c>
       <c r="C98" s="15">
         <v>2</v>
       </c>
@@ -12728,7 +12828,7 @@
       <c r="F98" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="G98" s="100">
+      <c r="G98" s="99">
         <v>14111</v>
       </c>
       <c r="H98" s="29"/>
@@ -12743,7 +12843,7 @@
       <c r="Q98" s="29"/>
       <c r="R98" s="29"/>
       <c r="S98" s="29"/>
-      <c r="T98" s="120"/>
+      <c r="T98" s="119"/>
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="30"/>
@@ -12752,7 +12852,7 @@
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
       <c r="F99" s="29"/>
-      <c r="G99" s="124"/>
+      <c r="G99" s="123"/>
       <c r="H99" s="29"/>
       <c r="I99" s="29"/>
       <c r="J99" s="29"/>
@@ -12765,7 +12865,7 @@
       <c r="Q99" s="29"/>
       <c r="R99" s="29"/>
       <c r="S99" s="29"/>
-      <c r="T99" s="120"/>
+      <c r="T99" s="119"/>
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="30"/>
@@ -12774,7 +12874,7 @@
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
       <c r="F100" s="29"/>
-      <c r="G100" s="124"/>
+      <c r="G100" s="123"/>
       <c r="H100" s="29"/>
       <c r="I100" s="29"/>
       <c r="J100" s="29"/>
@@ -12787,7 +12887,7 @@
       <c r="Q100" s="29"/>
       <c r="R100" s="29"/>
       <c r="S100" s="29"/>
-      <c r="T100" s="120"/>
+      <c r="T100" s="119"/>
     </row>
     <row r="101" spans="1:21" ht="43.5">
       <c r="A101" s="30"/>
@@ -12796,7 +12896,7 @@
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
-      <c r="G101" s="124"/>
+      <c r="G101" s="123"/>
       <c r="H101" s="29">
         <v>20</v>
       </c>
@@ -12817,7 +12917,7 @@
       <c r="Q101" s="29"/>
       <c r="R101" s="29"/>
       <c r="S101" s="29"/>
-      <c r="T101" s="120"/>
+      <c r="T101" s="119"/>
     </row>
     <row r="102" spans="1:21" ht="15" thickBot="1">
       <c r="A102" s="30"/>
@@ -12826,7 +12926,7 @@
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
-      <c r="G102" s="124"/>
+      <c r="G102" s="123"/>
       <c r="H102" s="29"/>
       <c r="I102" s="29"/>
       <c r="J102" s="29"/>
@@ -12839,7 +12939,7 @@
       <c r="Q102" s="29"/>
       <c r="R102" s="29"/>
       <c r="S102" s="29"/>
-      <c r="T102" s="120"/>
+      <c r="T102" s="119"/>
     </row>
     <row r="103" spans="1:21" ht="72.599999999999994">
       <c r="A103" s="5">
@@ -12860,7 +12960,7 @@
       <c r="F103" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G103" s="104"/>
+      <c r="G103" s="103"/>
       <c r="H103" s="29">
         <v>20</v>
       </c>
@@ -12889,7 +12989,7 @@
       <c r="S103" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T103" s="120">
+      <c r="T103" s="119">
         <v>1</v>
       </c>
     </row>
@@ -12909,10 +13009,10 @@
       <c r="E104" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F104" s="90" t="s">
+      <c r="F104" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="G104" s="108"/>
+      <c r="G104" s="107"/>
       <c r="H104" s="29"/>
       <c r="I104" s="29"/>
       <c r="J104" s="29"/>
@@ -12925,20 +13025,26 @@
       <c r="Q104" s="29"/>
       <c r="R104" s="29"/>
       <c r="S104" s="29"/>
-      <c r="T104" s="120"/>
+      <c r="T104" s="119"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
+      <c r="A105" s="6">
+        <v>3</v>
+      </c>
+      <c r="B105" s="7">
+        <v>2</v>
+      </c>
       <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="D105" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E105" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F105" s="90" t="s">
+      <c r="F105" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="G105" s="108"/>
+      <c r="G105" s="107"/>
       <c r="H105" s="29"/>
       <c r="I105" s="29"/>
       <c r="J105" s="29"/>
@@ -12951,28 +13057,28 @@
       <c r="Q105" s="29"/>
       <c r="R105" s="29"/>
       <c r="S105" s="29"/>
-      <c r="T105" s="120"/>
+      <c r="T105" s="119"/>
     </row>
     <row r="106" spans="1:21" ht="15" thickBot="1">
-      <c r="A106" s="82">
-        <v>3</v>
-      </c>
-      <c r="B106" s="83">
-        <v>2</v>
-      </c>
-      <c r="C106" s="81">
-        <v>1</v>
-      </c>
-      <c r="D106" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E106" s="81" t="s">
+      <c r="A106" s="81">
+        <v>4</v>
+      </c>
+      <c r="B106" s="82">
+        <v>2</v>
+      </c>
+      <c r="C106" s="80">
+        <v>1</v>
+      </c>
+      <c r="D106" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F106" s="88" t="s">
+      <c r="F106" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="G106" s="107"/>
+      <c r="G106" s="106"/>
       <c r="H106" s="29"/>
       <c r="I106" s="29"/>
       <c r="J106" s="29"/>
@@ -12985,26 +13091,28 @@
       <c r="Q106" s="29"/>
       <c r="R106" s="29"/>
       <c r="S106" s="29"/>
-      <c r="T106" s="120"/>
+      <c r="T106" s="119"/>
     </row>
     <row r="107" spans="1:21" ht="29.1">
-      <c r="A107" s="79">
-        <v>1</v>
-      </c>
-      <c r="B107" s="32"/>
+      <c r="A107" s="78">
+        <v>1</v>
+      </c>
+      <c r="B107" s="127">
+        <v>3</v>
+      </c>
       <c r="C107" s="28">
         <v>1</v>
       </c>
       <c r="D107" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E107" s="80" t="s">
+      <c r="E107" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="F107" s="87" t="s">
+      <c r="F107" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="G107" s="99">
+      <c r="G107" s="98">
         <v>11111</v>
       </c>
       <c r="H107" s="29"/>
@@ -13019,13 +13127,15 @@
       <c r="Q107" s="29"/>
       <c r="R107" s="29"/>
       <c r="S107" s="29"/>
-      <c r="T107" s="120"/>
+      <c r="T107" s="119"/>
     </row>
     <row r="108" spans="1:21" ht="29.45" thickBot="1">
       <c r="A108" s="13">
         <v>2</v>
       </c>
-      <c r="B108" s="14"/>
+      <c r="B108" s="128">
+        <v>3</v>
+      </c>
       <c r="C108" s="15">
         <v>2</v>
       </c>
@@ -13038,7 +13148,7 @@
       <c r="F108" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="G108" s="100">
+      <c r="G108" s="99">
         <v>14111</v>
       </c>
       <c r="H108" s="29"/>
@@ -13053,7 +13163,7 @@
       <c r="Q108" s="29"/>
       <c r="R108" s="29"/>
       <c r="S108" s="29"/>
-      <c r="T108" s="120"/>
+      <c r="T108" s="119"/>
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="30"/>
@@ -13062,7 +13172,7 @@
       <c r="D109" s="29"/>
       <c r="E109" s="34"/>
       <c r="F109" s="29"/>
-      <c r="G109" s="124"/>
+      <c r="G109" s="123"/>
       <c r="H109" s="29"/>
       <c r="I109" s="29"/>
       <c r="J109" s="29"/>
@@ -13075,7 +13185,7 @@
       <c r="Q109" s="33"/>
       <c r="R109" s="29"/>
       <c r="S109" s="29"/>
-      <c r="T109" s="121"/>
+      <c r="T109" s="120"/>
       <c r="U109" s="29"/>
     </row>
     <row r="110" spans="1:21">
@@ -13085,7 +13195,7 @@
       <c r="D110" s="29"/>
       <c r="E110" s="34"/>
       <c r="F110" s="29"/>
-      <c r="G110" s="124"/>
+      <c r="G110" s="123"/>
       <c r="H110" s="29"/>
       <c r="I110" s="29"/>
       <c r="J110" s="29"/>
@@ -13098,7 +13208,7 @@
       <c r="Q110" s="33"/>
       <c r="R110" s="29"/>
       <c r="S110" s="29"/>
-      <c r="T110" s="121"/>
+      <c r="T110" s="120"/>
       <c r="U110" s="29"/>
     </row>
     <row r="111" spans="1:21" ht="87.6" thickBot="1">
@@ -13108,7 +13218,7 @@
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
-      <c r="G111" s="126"/>
+      <c r="G111" s="125"/>
       <c r="H111" s="22">
         <v>100</v>
       </c>
@@ -13117,7 +13227,7 @@
         <v>113</v>
       </c>
       <c r="K111" s="22"/>
-      <c r="L111" s="84" t="s">
+      <c r="L111" s="83" t="s">
         <v>114</v>
       </c>
       <c r="M111" s="22"/>
@@ -13127,7 +13237,7 @@
       <c r="Q111" s="22"/>
       <c r="R111" s="22"/>
       <c r="S111" s="22"/>
-      <c r="T111" s="122"/>
+      <c r="T111" s="121"/>
     </row>
     <row r="112" spans="1:21">
       <c r="M112" s="29"/>

--- a/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=14/Prozesse_Stückliste_L1_S4_i23,28_Scheiben.xlsx
+++ b/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=14/Prozesse_Stückliste_L1_S4_i23,28_Scheiben.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24302"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_C290A855DAC40C962C62F7F11F9DD7CB5330F6B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liria\Desktop\HiWi\testing\BOM\datenRF4\AFL\i=23,28 Scheibenbremse, Abtriebswelle=14\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF0F85C-BFF5-4D39-9F42-F43A541CA15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15108" yWindow="-11016" windowWidth="17280" windowHeight="8820" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variante 1" sheetId="7" state="hidden" r:id="rId1"/>
@@ -19,15 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -519,7 +515,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1784,25 +1780,25 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L48" sqref="L48:P60"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.5703125" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="63.5546875" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1821,7 +1817,7 @@
       </c>
       <c r="K1" s="134"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -1871,7 +1867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="57.95">
+    <row r="3" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1897,7 +1893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1919,7 +1915,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:16" ht="58.5" thickBot="1">
+    <row r="5" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1966,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F6" s="40">
         <v>2</v>
       </c>
@@ -1987,7 +1983,7 @@
       </c>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E7" s="35"/>
       <c r="F7" s="29">
         <v>1</v>
@@ -2007,7 +2003,7 @@
       </c>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2024,11 +2020,11 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1"/>
-    <row r="11" spans="1:16" ht="57.95">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2075,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6">
@@ -2097,7 +2093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="6">
@@ -2117,7 +2113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="57">
@@ -2137,7 +2133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="43.5">
+    <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2151,19 +2147,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="58.5" thickBot="1">
+    <row r="19" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -2210,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
       <c r="F20" s="6">
         <v>2</v>
@@ -2231,7 +2227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="6">
         <v>1</v>
@@ -2250,7 +2246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
       <c r="F22" s="6">
         <v>2</v>
@@ -2269,7 +2265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="29.1">
+    <row r="23" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
       <c r="F23" s="57">
         <v>3</v>
@@ -2288,10 +2284,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="29.1">
+    <row r="25" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2305,19 +2301,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1">
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="58.5" thickBot="1">
+    <row r="30" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
@@ -2364,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
       <c r="F31" s="6">
         <v>2</v>
@@ -2385,7 +2381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="6">
         <v>1</v>
@@ -2404,7 +2400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="6">
         <v>2</v>
@@ -2423,7 +2419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="29.1">
+    <row r="34" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E34" s="1"/>
       <c r="F34" s="57">
         <v>3</v>
@@ -2442,13 +2438,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="29.1">
+    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -2462,19 +2458,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1">
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="44.1" thickBot="1">
+    <row r="42" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>7</v>
       </c>
@@ -2515,7 +2511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="44.1" thickBot="1">
+    <row r="43" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F43" s="6">
         <v>2</v>
       </c>
@@ -2544,7 +2540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F44" s="5">
         <v>1</v>
       </c>
@@ -2562,7 +2558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F45" s="6">
         <v>2</v>
       </c>
@@ -2580,7 +2576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="29.45" thickBot="1">
+    <row r="46" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F46" s="13">
         <v>3</v>
       </c>
@@ -2598,7 +2594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1">
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7</v>
       </c>
@@ -2612,7 +2608,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="44.1" thickBot="1">
+    <row r="48" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>8</v>
       </c>
@@ -2645,7 +2641,7 @@
       </c>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="6">
@@ -2667,7 +2663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" thickBot="1">
+    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="46"/>
@@ -2681,7 +2677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" thickBot="1">
+    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="46"/>
@@ -2695,11 +2691,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" thickBot="1">
+    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:14" ht="29.45" thickBot="1">
+    <row r="53" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>9</v>
       </c>
@@ -2732,7 +2728,7 @@
       </c>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E54" s="1"/>
       <c r="F54" s="6">
         <v>2</v>
@@ -2753,7 +2749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" thickBot="1">
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
       <c r="F55" s="46"/>
       <c r="G55" s="47"/>
@@ -2770,7 +2766,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" thickBot="1">
+    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E56" s="1"/>
       <c r="F56" s="46"/>
       <c r="G56" s="47"/>
@@ -2787,7 +2783,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E57" s="1"/>
       <c r="H57" s="52">
         <v>6</v>
@@ -2802,10 +2798,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15" thickBot="1">
+    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="29.45" thickBot="1">
+    <row r="59" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>10</v>
       </c>
@@ -2838,7 +2834,7 @@
       </c>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>11</v>
       </c>
@@ -2872,7 +2868,7 @@
       <c r="L60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1">
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1"/>
       <c r="F61" s="46"/>
       <c r="G61" s="47"/>
@@ -2889,7 +2885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1">
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E62" s="1"/>
       <c r="F62" s="46"/>
       <c r="G62" s="47"/>
@@ -2906,7 +2902,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E63" s="1"/>
       <c r="H63" s="52">
         <v>6</v>
@@ -2921,7 +2917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="43.5">
+    <row r="65" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -2935,7 +2931,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="43.5">
+    <row r="66" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -2949,7 +2945,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="43.5">
+    <row r="67" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -2963,7 +2959,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="44.1" thickBot="1">
+    <row r="68" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>12</v>
       </c>
@@ -2977,7 +2973,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="58.5" thickBot="1">
+    <row r="69" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>13</v>
       </c>
@@ -3024,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="6">
@@ -3046,7 +3042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" thickBot="1">
+    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="6"/>
@@ -3060,7 +3056,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" thickBot="1">
+    <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="6">
@@ -3082,7 +3078,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="29.1">
+    <row r="73" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="5">
@@ -3102,7 +3098,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="29.45" thickBot="1">
+    <row r="74" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="13">
@@ -3122,11 +3118,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:16" ht="43.5">
+    <row r="76" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3140,7 +3136,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="43.5">
+    <row r="77" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>15</v>
       </c>
@@ -3154,7 +3150,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="43.5">
+    <row r="78" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>16</v>
       </c>
@@ -3168,7 +3164,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="29.1">
+    <row r="79" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>17</v>
       </c>
@@ -3182,23 +3178,23 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:16" ht="15" thickBot="1">
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:16" ht="58.5" thickBot="1">
+    <row r="84" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>18</v>
       </c>
@@ -3245,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="6">
@@ -3267,7 +3263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" thickBot="1">
+    <row r="86" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="6"/>
@@ -3281,7 +3277,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" thickBot="1">
+    <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="6">
@@ -3303,7 +3299,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="29.1">
+    <row r="88" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="5">
@@ -3323,7 +3319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="29.45" thickBot="1">
+    <row r="89" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="13">
@@ -3343,11 +3339,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:16" ht="44.1" thickBot="1">
+    <row r="91" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>19</v>
       </c>
@@ -3361,7 +3357,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="58.5" thickBot="1">
+    <row r="92" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>19</v>
       </c>
@@ -3408,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="6">
         <v>2</v>
@@ -3429,7 +3425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" thickBot="1">
+    <row r="94" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E94" s="1"/>
       <c r="F94" s="6"/>
       <c r="G94" s="7"/>
@@ -3442,7 +3438,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" thickBot="1">
+    <row r="95" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E95" s="1"/>
       <c r="F95" s="6">
         <v>3</v>
@@ -3463,7 +3459,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="29.1">
+    <row r="96" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E96" s="1"/>
       <c r="F96" s="5">
         <v>1</v>
@@ -3482,7 +3478,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="29.45" thickBot="1">
+    <row r="97" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E97" s="1"/>
       <c r="F97" s="13">
         <v>2</v>
@@ -3501,13 +3497,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:16" ht="43.5">
+    <row r="100" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>20</v>
       </c>
@@ -3521,10 +3517,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" thickBot="1">
+    <row r="101" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:16" ht="58.5" thickBot="1">
+    <row r="102" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>20</v>
       </c>
@@ -3571,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E103" s="1"/>
       <c r="F103" s="6">
         <v>2</v>
@@ -3592,7 +3588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" thickBot="1">
+    <row r="104" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E104" s="1"/>
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
@@ -3605,7 +3601,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" thickBot="1">
+    <row r="105" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E105" s="1"/>
       <c r="F105" s="6">
         <v>3</v>
@@ -3626,7 +3622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="29.1">
+    <row r="106" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E106" s="1"/>
       <c r="F106" s="5">
         <v>1</v>
@@ -3645,7 +3641,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="29.45" thickBot="1">
+    <row r="107" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E107" s="1"/>
       <c r="F107" s="13">
         <v>2</v>
@@ -3664,7 +3660,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E108" s="1"/>
       <c r="F108" s="29"/>
       <c r="G108" s="33"/>
@@ -3673,7 +3669,7 @@
       <c r="J108" s="34"/>
       <c r="K108" s="29"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E109" s="1"/>
       <c r="F109" s="29"/>
       <c r="G109" s="33"/>
@@ -3682,7 +3678,7 @@
       <c r="J109" s="34"/>
       <c r="K109" s="29"/>
     </row>
-    <row r="110" spans="1:16" ht="72.599999999999994">
+    <row r="110" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>100</v>
       </c>
@@ -3710,22 +3706,22 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L48" sqref="L48:P60"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.5703125" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="63.5546875" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3744,7 +3740,7 @@
       </c>
       <c r="K1" s="134"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -3794,7 +3790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="87">
+    <row r="3" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3820,7 +3816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3842,7 +3838,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:16" ht="87.6" thickBot="1">
+    <row r="5" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3889,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F6" s="40">
         <v>2</v>
       </c>
@@ -3910,7 +3906,7 @@
       </c>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E7" s="35"/>
       <c r="F7" s="29">
         <v>1</v>
@@ -3930,7 +3926,7 @@
       </c>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3947,11 +3943,11 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1"/>
-    <row r="11" spans="1:16" ht="87.6" thickBot="1">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3998,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6">
@@ -4020,7 +4016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="5">
@@ -4040,7 +4036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="6">
@@ -4060,7 +4056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="43.5">
+    <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4074,19 +4070,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="87.6" thickBot="1">
+    <row r="19" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -4133,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="1"/>
       <c r="F20" s="6">
         <v>2</v>
@@ -4154,7 +4150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="5">
         <v>1</v>
@@ -4173,7 +4169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
       <c r="F22" s="6">
         <v>2</v>
@@ -4192,7 +4188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="29.45" thickBot="1">
+    <row r="23" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E23" s="1"/>
       <c r="F23" s="13">
         <v>3</v>
@@ -4211,10 +4207,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="29.1">
+    <row r="25" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -4228,19 +4224,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1">
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="87.6" thickBot="1">
+    <row r="30" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
@@ -4287,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" thickBot="1">
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="1"/>
       <c r="F31" s="6">
         <v>2</v>
@@ -4308,7 +4304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="5">
         <v>1</v>
@@ -4327,7 +4323,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="6">
         <v>2</v>
@@ -4346,7 +4342,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="29.45" thickBot="1">
+    <row r="34" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="1"/>
       <c r="F34" s="13">
         <v>3</v>
@@ -4365,13 +4361,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="29.1">
+    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -4385,19 +4381,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="15" thickBot="1">
+    <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="58.5" thickBot="1">
+    <row r="42" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>7</v>
       </c>
@@ -4438,7 +4434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="44.1" thickBot="1">
+    <row r="43" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F43" s="6">
         <v>2</v>
       </c>
@@ -4467,7 +4463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F44" s="5">
         <v>1</v>
       </c>
@@ -4485,7 +4481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F45" s="6">
         <v>2</v>
       </c>
@@ -4503,7 +4499,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="29.45" thickBot="1">
+    <row r="46" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F46" s="13">
         <v>3</v>
       </c>
@@ -4521,7 +4517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" thickBot="1">
+    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7</v>
       </c>
@@ -4535,7 +4531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="87.6" thickBot="1">
+    <row r="48" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>8</v>
       </c>
@@ -4582,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="6">
@@ -4604,7 +4600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" thickBot="1">
+    <row r="50" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="46"/>
@@ -4618,7 +4614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" thickBot="1">
+    <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="46"/>
@@ -4632,11 +4628,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" thickBot="1">
+    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="87.6" thickBot="1">
+    <row r="53" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>9</v>
       </c>
@@ -4683,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E54" s="1"/>
       <c r="F54" s="6">
         <v>2</v>
@@ -4704,7 +4700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" thickBot="1">
+    <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
       <c r="F55" s="46"/>
       <c r="G55" s="47"/>
@@ -4721,7 +4717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" thickBot="1">
+    <row r="56" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E56" s="1"/>
       <c r="F56" s="46"/>
       <c r="G56" s="47"/>
@@ -4738,7 +4734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E57" s="1"/>
       <c r="H57" s="52">
         <v>6</v>
@@ -4753,10 +4749,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" thickBot="1">
+    <row r="58" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:16" ht="58.5" thickBot="1">
+    <row r="59" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>10</v>
       </c>
@@ -4797,7 +4793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="43.5">
+    <row r="60" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>11</v>
       </c>
@@ -4838,7 +4834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" thickBot="1">
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1"/>
       <c r="F61" s="46"/>
       <c r="G61" s="47"/>
@@ -4855,7 +4851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" thickBot="1">
+    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E62" s="1"/>
       <c r="F62" s="46"/>
       <c r="G62" s="47"/>
@@ -4872,7 +4868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E63" s="1"/>
       <c r="H63" s="52">
         <v>6</v>
@@ -4887,7 +4883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="43.5">
+    <row r="65" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -4901,7 +4897,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="43.5">
+    <row r="66" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -4915,7 +4911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="43.5">
+    <row r="67" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -4929,7 +4925,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="44.1" thickBot="1">
+    <row r="68" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>12</v>
       </c>
@@ -4943,7 +4939,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="87.6" thickBot="1">
+    <row r="69" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>13</v>
       </c>
@@ -4990,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="6">
@@ -5012,7 +5008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" thickBot="1">
+    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="6"/>
@@ -5026,7 +5022,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" thickBot="1">
+    <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="6">
@@ -5048,7 +5044,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="29.1">
+    <row r="73" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="64">
@@ -5068,7 +5064,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="29"/>
@@ -5078,11 +5074,11 @@
       <c r="J74" s="34"/>
       <c r="K74" s="29"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:16" ht="43.5">
+    <row r="76" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -5096,7 +5092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="43.5">
+    <row r="77" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>15</v>
       </c>
@@ -5110,7 +5106,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="43.5">
+    <row r="78" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>16</v>
       </c>
@@ -5124,7 +5120,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="29.1">
+    <row r="79" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>17</v>
       </c>
@@ -5138,23 +5134,23 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:16" ht="15" thickBot="1">
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:16" ht="87.6" thickBot="1">
+    <row r="84" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>18</v>
       </c>
@@ -5201,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="6">
@@ -5223,7 +5219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" thickBot="1">
+    <row r="86" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="6"/>
@@ -5237,7 +5233,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" thickBot="1">
+    <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="6">
@@ -5259,7 +5255,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="29.1">
+    <row r="88" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="5">
@@ -5279,7 +5275,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="29.45" thickBot="1">
+    <row r="89" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="13">
@@ -5299,11 +5295,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:16" ht="44.1" thickBot="1">
+    <row r="91" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>19</v>
       </c>
@@ -5317,7 +5313,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="87.6" thickBot="1">
+    <row r="92" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>19</v>
       </c>
@@ -5364,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="6">
         <v>2</v>
@@ -5385,7 +5381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" thickBot="1">
+    <row r="94" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E94" s="1"/>
       <c r="F94" s="6"/>
       <c r="G94" s="7"/>
@@ -5398,7 +5394,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" thickBot="1">
+    <row r="95" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E95" s="1"/>
       <c r="F95" s="6">
         <v>3</v>
@@ -5419,7 +5415,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="29.1">
+    <row r="96" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E96" s="1"/>
       <c r="F96" s="5">
         <v>1</v>
@@ -5438,7 +5434,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="29.45" thickBot="1">
+    <row r="97" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E97" s="1"/>
       <c r="F97" s="13">
         <v>2</v>
@@ -5457,13 +5453,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:16" ht="43.5">
+    <row r="100" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>20</v>
       </c>
@@ -5477,10 +5473,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" thickBot="1">
+    <row r="101" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:16" ht="87.6" thickBot="1">
+    <row r="102" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>20</v>
       </c>
@@ -5527,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E103" s="1"/>
       <c r="F103" s="6">
         <v>2</v>
@@ -5548,7 +5544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" thickBot="1">
+    <row r="104" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E104" s="1"/>
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
@@ -5561,7 +5557,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" thickBot="1">
+    <row r="105" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E105" s="1"/>
       <c r="F105" s="6">
         <v>3</v>
@@ -5582,7 +5578,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="29.1">
+    <row r="106" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E106" s="1"/>
       <c r="F106" s="5">
         <v>1</v>
@@ -5601,7 +5597,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="29.45" thickBot="1">
+    <row r="107" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E107" s="1"/>
       <c r="F107" s="13">
         <v>2</v>
@@ -5620,7 +5616,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E108" s="1"/>
       <c r="F108" s="29"/>
       <c r="G108" s="33"/>
@@ -5629,7 +5625,7 @@
       <c r="J108" s="34"/>
       <c r="K108" s="29"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E109" s="1"/>
       <c r="F109" s="29"/>
       <c r="G109" s="33"/>
@@ -5638,7 +5634,7 @@
       <c r="J109" s="34"/>
       <c r="K109" s="29"/>
     </row>
-    <row r="110" spans="1:16" ht="72.599999999999994">
+    <row r="110" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>100</v>
       </c>
@@ -5666,22 +5662,22 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L48" sqref="L48:P60"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.5703125" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="63.5546875" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5700,7 +5696,7 @@
       </c>
       <c r="K1" s="134"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -5750,7 +5746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="87">
+    <row r="3" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5776,7 +5772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5798,7 +5794,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:16" ht="87.6" thickBot="1">
+    <row r="5" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5845,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F6" s="40">
         <v>2</v>
       </c>
@@ -5866,7 +5862,7 @@
       </c>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E7" s="35"/>
       <c r="F7" s="29">
         <v>1</v>
@@ -5886,7 +5882,7 @@
       </c>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -5903,11 +5899,11 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1"/>
-    <row r="11" spans="1:16" ht="87.6" thickBot="1">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5954,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6">
@@ -5976,7 +5972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="5">
@@ -5996,7 +5992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="6">
@@ -6016,7 +6012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="43.5">
+    <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -6030,19 +6026,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="87.6" thickBot="1">
+    <row r="19" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6089,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="1"/>
       <c r="F20" s="6">
         <v>2</v>
@@ -6110,7 +6106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="5">
         <v>1</v>
@@ -6129,7 +6125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
       <c r="F22" s="6">
         <v>2</v>
@@ -6148,7 +6144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="29.45" thickBot="1">
+    <row r="23" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E23" s="1"/>
       <c r="F23" s="13">
         <v>3</v>
@@ -6167,10 +6163,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="29.1">
+    <row r="25" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -6184,19 +6180,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1">
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="87.6" thickBot="1">
+    <row r="30" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
@@ -6243,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" thickBot="1">
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="1"/>
       <c r="F31" s="6">
         <v>2</v>
@@ -6264,7 +6260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="5">
         <v>1</v>
@@ -6283,7 +6279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="6">
         <v>2</v>
@@ -6302,7 +6298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="29.45" thickBot="1">
+    <row r="34" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="1"/>
       <c r="F34" s="13">
         <v>3</v>
@@ -6321,13 +6317,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="29.1">
+    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -6341,19 +6337,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="15" thickBot="1">
+    <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="58.5" thickBot="1">
+    <row r="42" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>7</v>
       </c>
@@ -6394,7 +6390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="44.1" thickBot="1">
+    <row r="43" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F43" s="6">
         <v>2</v>
       </c>
@@ -6423,7 +6419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F44" s="5">
         <v>1</v>
       </c>
@@ -6441,7 +6437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F45" s="6">
         <v>2</v>
       </c>
@@ -6459,7 +6455,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="29.45" thickBot="1">
+    <row r="46" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F46" s="13">
         <v>3</v>
       </c>
@@ -6477,7 +6473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" thickBot="1">
+    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7</v>
       </c>
@@ -6491,7 +6487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="87.6" thickBot="1">
+    <row r="48" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>8</v>
       </c>
@@ -6538,7 +6534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="6">
@@ -6560,7 +6556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" thickBot="1">
+    <row r="50" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="46"/>
@@ -6574,7 +6570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" thickBot="1">
+    <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="46"/>
@@ -6588,11 +6584,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" thickBot="1">
+    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="87.6" thickBot="1">
+    <row r="53" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>9</v>
       </c>
@@ -6639,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E54" s="1"/>
       <c r="F54" s="6">
         <v>2</v>
@@ -6660,7 +6656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" thickBot="1">
+    <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
       <c r="F55" s="46"/>
       <c r="G55" s="47"/>
@@ -6677,7 +6673,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" thickBot="1">
+    <row r="56" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E56" s="1"/>
       <c r="F56" s="46"/>
       <c r="G56" s="47"/>
@@ -6694,7 +6690,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E57" s="1"/>
       <c r="H57" s="52">
         <v>6</v>
@@ -6709,10 +6705,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" thickBot="1">
+    <row r="58" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:16" ht="58.5" thickBot="1">
+    <row r="59" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>10</v>
       </c>
@@ -6753,7 +6749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="43.5">
+    <row r="60" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>11</v>
       </c>
@@ -6794,7 +6790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" thickBot="1">
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1"/>
       <c r="F61" s="46"/>
       <c r="G61" s="47"/>
@@ -6811,7 +6807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" thickBot="1">
+    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E62" s="1"/>
       <c r="F62" s="46"/>
       <c r="G62" s="47"/>
@@ -6828,7 +6824,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E63" s="1"/>
       <c r="H63" s="52">
         <v>6</v>
@@ -6843,7 +6839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="43.5">
+    <row r="65" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -6857,7 +6853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="43.5">
+    <row r="66" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -6871,7 +6867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="43.5">
+    <row r="67" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -6885,7 +6881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="44.1" thickBot="1">
+    <row r="68" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>12</v>
       </c>
@@ -6899,7 +6895,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="87.6" thickBot="1">
+    <row r="69" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>13</v>
       </c>
@@ -6946,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="6">
@@ -6968,7 +6964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" thickBot="1">
+    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="6"/>
@@ -6982,7 +6978,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" thickBot="1">
+    <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="6">
@@ -7004,7 +7000,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="29.1">
+    <row r="73" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="64">
@@ -7024,7 +7020,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="29"/>
@@ -7034,11 +7030,11 @@
       <c r="J74" s="34"/>
       <c r="K74" s="29"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:16" ht="43.5">
+    <row r="76" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -7052,7 +7048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="43.5">
+    <row r="77" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>15</v>
       </c>
@@ -7066,7 +7062,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="43.5">
+    <row r="78" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>16</v>
       </c>
@@ -7080,7 +7076,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="29.1">
+    <row r="79" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>17</v>
       </c>
@@ -7094,23 +7090,23 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:16" ht="15" thickBot="1">
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:16" ht="87.6" thickBot="1">
+    <row r="84" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>18</v>
       </c>
@@ -7157,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="6">
@@ -7179,7 +7175,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" thickBot="1">
+    <row r="86" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="6"/>
@@ -7193,7 +7189,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" thickBot="1">
+    <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="6">
@@ -7215,7 +7211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="29.1">
+    <row r="88" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="5">
@@ -7235,7 +7231,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="29.45" thickBot="1">
+    <row r="89" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="13">
@@ -7255,11 +7251,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:16" ht="44.1" thickBot="1">
+    <row r="91" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>19</v>
       </c>
@@ -7273,7 +7269,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="87.6" thickBot="1">
+    <row r="92" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>19</v>
       </c>
@@ -7320,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="6">
         <v>2</v>
@@ -7341,7 +7337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" thickBot="1">
+    <row r="94" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E94" s="1"/>
       <c r="F94" s="6"/>
       <c r="G94" s="7"/>
@@ -7354,7 +7350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" thickBot="1">
+    <row r="95" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E95" s="1"/>
       <c r="F95" s="6">
         <v>3</v>
@@ -7375,7 +7371,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="29.1">
+    <row r="96" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E96" s="1"/>
       <c r="F96" s="5">
         <v>1</v>
@@ -7394,7 +7390,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="29.45" thickBot="1">
+    <row r="97" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E97" s="1"/>
       <c r="F97" s="13">
         <v>2</v>
@@ -7413,13 +7409,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:16" ht="43.5">
+    <row r="100" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>20</v>
       </c>
@@ -7433,10 +7429,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" thickBot="1">
+    <row r="101" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:16" ht="87.6" thickBot="1">
+    <row r="102" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>20</v>
       </c>
@@ -7483,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E103" s="1"/>
       <c r="F103" s="6">
         <v>2</v>
@@ -7504,7 +7500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" thickBot="1">
+    <row r="104" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E104" s="1"/>
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
@@ -7517,7 +7513,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" thickBot="1">
+    <row r="105" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E105" s="1"/>
       <c r="F105" s="6">
         <v>3</v>
@@ -7538,7 +7534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="29.1">
+    <row r="106" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E106" s="1"/>
       <c r="F106" s="5">
         <v>1</v>
@@ -7557,7 +7553,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="29.45" thickBot="1">
+    <row r="107" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E107" s="1"/>
       <c r="F107" s="13">
         <v>2</v>
@@ -7576,7 +7572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E108" s="1"/>
       <c r="F108" s="29"/>
       <c r="G108" s="33"/>
@@ -7585,7 +7581,7 @@
       <c r="J108" s="34"/>
       <c r="K108" s="29"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E109" s="1"/>
       <c r="F109" s="29"/>
       <c r="G109" s="33"/>
@@ -7594,7 +7590,7 @@
       <c r="J109" s="34"/>
       <c r="K109" s="29"/>
     </row>
-    <row r="110" spans="1:16" ht="72.599999999999994">
+    <row r="110" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>100</v>
       </c>
@@ -7622,22 +7618,22 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L48" sqref="L48:P60"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.5703125" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="63.5546875" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -7656,7 +7652,7 @@
       </c>
       <c r="K1" s="134"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -7706,7 +7702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="87">
+    <row r="3" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7732,7 +7728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7754,7 +7750,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:16" ht="87.6" thickBot="1">
+    <row r="5" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7801,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F6" s="40">
         <v>2</v>
       </c>
@@ -7822,7 +7818,7 @@
       </c>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E7" s="35"/>
       <c r="F7" s="29">
         <v>1</v>
@@ -7842,7 +7838,7 @@
       </c>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -7859,11 +7855,11 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1"/>
-    <row r="11" spans="1:16" ht="87.6" thickBot="1">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7910,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6">
@@ -7932,7 +7928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="5">
@@ -7952,7 +7948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="6">
@@ -7972,7 +7968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="43.5">
+    <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7986,19 +7982,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="87.6" thickBot="1">
+    <row r="19" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8045,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="1"/>
       <c r="F20" s="6">
         <v>2</v>
@@ -8066,7 +8062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="5">
         <v>1</v>
@@ -8085,7 +8081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
       <c r="F22" s="6">
         <v>2</v>
@@ -8104,7 +8100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="29.45" thickBot="1">
+    <row r="23" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E23" s="1"/>
       <c r="F23" s="13">
         <v>3</v>
@@ -8123,10 +8119,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="29.1">
+    <row r="25" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -8140,19 +8136,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1">
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="87.6" thickBot="1">
+    <row r="30" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
@@ -8199,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" thickBot="1">
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="1"/>
       <c r="F31" s="6">
         <v>2</v>
@@ -8220,7 +8216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="5">
         <v>1</v>
@@ -8239,7 +8235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="6">
         <v>2</v>
@@ -8258,7 +8254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="29.45" thickBot="1">
+    <row r="34" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="1"/>
       <c r="F34" s="13">
         <v>3</v>
@@ -8277,13 +8273,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="29.1">
+    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -8297,19 +8293,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="15" thickBot="1">
+    <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="58.5" thickBot="1">
+    <row r="42" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>7</v>
       </c>
@@ -8350,7 +8346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="44.1" thickBot="1">
+    <row r="43" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F43" s="6">
         <v>2</v>
       </c>
@@ -8379,7 +8375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F44" s="5">
         <v>1</v>
       </c>
@@ -8397,7 +8393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F45" s="6">
         <v>2</v>
       </c>
@@ -8415,7 +8411,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="29.45" thickBot="1">
+    <row r="46" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F46" s="13">
         <v>3</v>
       </c>
@@ -8433,7 +8429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" thickBot="1">
+    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7</v>
       </c>
@@ -8447,7 +8443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="87.6" thickBot="1">
+    <row r="48" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>8</v>
       </c>
@@ -8494,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="6">
@@ -8516,7 +8512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" thickBot="1">
+    <row r="50" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="46"/>
@@ -8530,7 +8526,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" thickBot="1">
+    <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="46"/>
@@ -8544,11 +8540,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" thickBot="1">
+    <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="87.6" thickBot="1">
+    <row r="53" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>9</v>
       </c>
@@ -8595,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E54" s="1"/>
       <c r="F54" s="6">
         <v>2</v>
@@ -8616,7 +8612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" thickBot="1">
+    <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
       <c r="F55" s="46"/>
       <c r="G55" s="47"/>
@@ -8633,7 +8629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" thickBot="1">
+    <row r="56" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E56" s="1"/>
       <c r="F56" s="46"/>
       <c r="G56" s="47"/>
@@ -8650,7 +8646,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E57" s="1"/>
       <c r="H57" s="52">
         <v>6</v>
@@ -8665,10 +8661,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" thickBot="1">
+    <row r="58" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:16" ht="58.5" thickBot="1">
+    <row r="59" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>10</v>
       </c>
@@ -8709,7 +8705,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="43.5">
+    <row r="60" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>11</v>
       </c>
@@ -8750,7 +8746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" thickBot="1">
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1"/>
       <c r="F61" s="46"/>
       <c r="G61" s="47"/>
@@ -8767,7 +8763,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" thickBot="1">
+    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E62" s="1"/>
       <c r="F62" s="46"/>
       <c r="G62" s="47"/>
@@ -8784,7 +8780,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E63" s="1"/>
       <c r="H63" s="52">
         <v>6</v>
@@ -8799,7 +8795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="43.5">
+    <row r="65" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -8813,7 +8809,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="43.5">
+    <row r="66" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -8827,7 +8823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="43.5">
+    <row r="67" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -8841,7 +8837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="44.1" thickBot="1">
+    <row r="68" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>12</v>
       </c>
@@ -8855,7 +8851,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="87.6" thickBot="1">
+    <row r="69" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>13</v>
       </c>
@@ -8902,7 +8898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="6">
@@ -8924,7 +8920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" thickBot="1">
+    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="6"/>
@@ -8938,7 +8934,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" thickBot="1">
+    <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="6">
@@ -8960,7 +8956,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="29.1">
+    <row r="73" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="64">
@@ -8980,7 +8976,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="29"/>
@@ -8990,11 +8986,11 @@
       <c r="J74" s="34"/>
       <c r="K74" s="29"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:16" ht="43.5">
+    <row r="76" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -9008,7 +9004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="43.5">
+    <row r="77" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>15</v>
       </c>
@@ -9022,7 +9018,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="43.5">
+    <row r="78" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>16</v>
       </c>
@@ -9036,7 +9032,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="29.1">
+    <row r="79" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>17</v>
       </c>
@@ -9050,23 +9046,23 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:16" ht="15" thickBot="1">
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:16" ht="87.6" thickBot="1">
+    <row r="84" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>18</v>
       </c>
@@ -9113,7 +9109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="6">
@@ -9135,7 +9131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" thickBot="1">
+    <row r="86" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="6"/>
@@ -9149,7 +9145,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" thickBot="1">
+    <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="6">
@@ -9171,7 +9167,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="29.1">
+    <row r="88" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="5">
@@ -9191,7 +9187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="29.45" thickBot="1">
+    <row r="89" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="13">
@@ -9211,11 +9207,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:16" ht="44.1" thickBot="1">
+    <row r="91" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>19</v>
       </c>
@@ -9229,7 +9225,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="87.6" thickBot="1">
+    <row r="92" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>19</v>
       </c>
@@ -9276,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="6">
         <v>2</v>
@@ -9297,7 +9293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" thickBot="1">
+    <row r="94" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E94" s="1"/>
       <c r="F94" s="6"/>
       <c r="G94" s="7"/>
@@ -9310,7 +9306,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" thickBot="1">
+    <row r="95" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E95" s="1"/>
       <c r="F95" s="6">
         <v>3</v>
@@ -9331,7 +9327,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="29.1">
+    <row r="96" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E96" s="1"/>
       <c r="F96" s="5">
         <v>1</v>
@@ -9350,7 +9346,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="29.45" thickBot="1">
+    <row r="97" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E97" s="1"/>
       <c r="F97" s="13">
         <v>2</v>
@@ -9369,13 +9365,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:16" ht="43.5">
+    <row r="100" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>20</v>
       </c>
@@ -9389,10 +9385,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" thickBot="1">
+    <row r="101" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:16" ht="87.6" thickBot="1">
+    <row r="102" spans="1:16" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>20</v>
       </c>
@@ -9439,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E103" s="1"/>
       <c r="F103" s="6">
         <v>2</v>
@@ -9460,7 +9456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" thickBot="1">
+    <row r="104" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E104" s="1"/>
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
@@ -9473,7 +9469,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" thickBot="1">
+    <row r="105" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E105" s="1"/>
       <c r="F105" s="6">
         <v>3</v>
@@ -9494,7 +9490,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="29.1">
+    <row r="106" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E106" s="1"/>
       <c r="F106" s="5">
         <v>1</v>
@@ -9513,7 +9509,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="29.45" thickBot="1">
+    <row r="107" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E107" s="1"/>
       <c r="F107" s="13">
         <v>2</v>
@@ -9532,7 +9528,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E108" s="1"/>
       <c r="F108" s="29"/>
       <c r="G108" s="33"/>
@@ -9541,7 +9537,7 @@
       <c r="J108" s="34"/>
       <c r="K108" s="29"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E109" s="1"/>
       <c r="F109" s="29"/>
       <c r="G109" s="33"/>
@@ -9550,7 +9546,7 @@
       <c r="J109" s="34"/>
       <c r="K109" s="29"/>
     </row>
-    <row r="110" spans="1:16" ht="72.599999999999994">
+    <row r="110" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>100</v>
       </c>
@@ -9577,42 +9573,42 @@
   <dimension ref="A1:U340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I70" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="113" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="113" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="48.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="48.109375" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="122" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="122" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="144" t="s">
         <v>132</v>
       </c>
@@ -9640,7 +9636,7 @@
       <c r="S1" s="135"/>
       <c r="T1" s="135"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="137" t="s">
         <v>0</v>
       </c>
@@ -9668,7 +9664,7 @@
       <c r="S2" s="135"/>
       <c r="T2" s="135"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="69" t="s">
         <v>8</v>
       </c>
@@ -9730,7 +9726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="29.1" customHeight="1">
+    <row r="4" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -9764,7 +9760,7 @@
       </c>
       <c r="T4" s="118"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="75"/>
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
@@ -9794,7 +9790,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="119"/>
     </row>
-    <row r="6" spans="1:20" ht="72.599999999999994">
+    <row r="6" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -9846,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>2</v>
       </c>
@@ -9880,7 +9876,7 @@
       <c r="S7" s="29"/>
       <c r="T7" s="119"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -9916,7 +9912,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="119"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -9943,7 +9939,7 @@
       <c r="S9" s="29"/>
       <c r="T9" s="119"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -9967,7 +9963,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="119"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1">
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -9989,7 +9985,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="119"/>
     </row>
-    <row r="12" spans="1:20" ht="72.599999999999994">
+    <row r="12" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -10041,7 +10037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1">
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>2</v>
       </c>
@@ -10075,7 +10071,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="119"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="78">
         <v>1</v>
       </c>
@@ -10111,7 +10107,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="119"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1">
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>2</v>
       </c>
@@ -10147,7 +10143,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="119"/>
     </row>
-    <row r="16" spans="1:20" ht="72.599999999999994">
+    <row r="16" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -10177,7 +10173,7 @@
       <c r="S16" s="29"/>
       <c r="T16" s="119"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -10199,7 +10195,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="119"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -10221,7 +10217,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="119"/>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1">
+    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -10243,7 +10239,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="119"/>
     </row>
-    <row r="20" spans="1:20" ht="72.599999999999994">
+    <row r="20" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -10295,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1">
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="81">
         <v>2</v>
       </c>
@@ -10329,7 +10325,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="119"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="78">
         <v>1</v>
       </c>
@@ -10365,7 +10361,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="119"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>2</v>
       </c>
@@ -10401,7 +10397,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="119"/>
     </row>
-    <row r="24" spans="1:20" ht="29.45" thickBot="1">
+    <row r="24" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>3</v>
       </c>
@@ -10435,7 +10431,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="119"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -10457,7 +10453,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="119"/>
     </row>
-    <row r="26" spans="1:20" ht="29.1">
+    <row r="26" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -10487,7 +10483,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="119"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -10509,7 +10505,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="119"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -10531,7 +10527,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="119"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -10553,7 +10549,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="119"/>
     </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1">
+    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -10575,7 +10571,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="119"/>
     </row>
-    <row r="31" spans="1:20" ht="72.599999999999994">
+    <row r="31" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -10627,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1">
+    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="81">
         <v>2</v>
       </c>
@@ -10661,7 +10657,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="119"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="78">
         <v>1</v>
       </c>
@@ -10697,7 +10693,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="119"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>2</v>
       </c>
@@ -10733,7 +10729,7 @@
       <c r="S34" s="29"/>
       <c r="T34" s="119"/>
     </row>
-    <row r="35" spans="1:20" ht="29.45" thickBot="1">
+    <row r="35" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>3</v>
       </c>
@@ -10767,7 +10763,7 @@
       <c r="S35" s="29"/>
       <c r="T35" s="119"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -10789,7 +10785,7 @@
       <c r="S36" s="29"/>
       <c r="T36" s="119"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -10811,7 +10807,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="119"/>
     </row>
-    <row r="38" spans="1:20" ht="29.1">
+    <row r="38" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -10841,7 +10837,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="119"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -10863,7 +10859,7 @@
       <c r="S39" s="29"/>
       <c r="T39" s="119"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -10885,7 +10881,7 @@
       <c r="S40" s="29"/>
       <c r="T40" s="119"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -10907,7 +10903,7 @@
       <c r="S41" s="29"/>
       <c r="T41" s="119"/>
     </row>
-    <row r="42" spans="1:20" ht="15" thickBot="1">
+    <row r="42" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="30"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -10929,7 +10925,7 @@
       <c r="S42" s="29"/>
       <c r="T42" s="119"/>
     </row>
-    <row r="43" spans="1:20" ht="57.95">
+    <row r="43" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>1</v>
       </c>
@@ -10983,7 +10979,7 @@
       </c>
       <c r="T43" s="119"/>
     </row>
-    <row r="44" spans="1:20" ht="29.45" thickBot="1">
+    <row r="44" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="81">
         <v>2</v>
       </c>
@@ -11023,7 +11019,7 @@
       </c>
       <c r="T44" s="119"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="78">
         <v>1</v>
       </c>
@@ -11059,7 +11055,7 @@
       <c r="S45" s="29"/>
       <c r="T45" s="119"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>2</v>
       </c>
@@ -11095,7 +11091,7 @@
       <c r="S46" s="29"/>
       <c r="T46" s="119"/>
     </row>
-    <row r="47" spans="1:20" ht="29.45" thickBot="1">
+    <row r="47" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>3</v>
       </c>
@@ -11131,7 +11127,7 @@
       <c r="S47" s="29"/>
       <c r="T47" s="119"/>
     </row>
-    <row r="48" spans="1:20" ht="15" thickBot="1">
+    <row r="48" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="30"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -11161,7 +11157,7 @@
       <c r="S48" s="29"/>
       <c r="T48" s="119"/>
     </row>
-    <row r="49" spans="1:20" ht="72.599999999999994">
+    <row r="49" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>1</v>
       </c>
@@ -11213,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>2</v>
       </c>
@@ -11247,7 +11243,7 @@
       <c r="S50" s="29"/>
       <c r="T50" s="119"/>
     </row>
-    <row r="51" spans="1:20" ht="15" thickBot="1">
+    <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="81">
         <v>3</v>
       </c>
@@ -11281,7 +11277,7 @@
       <c r="S51" s="29"/>
       <c r="T51" s="119"/>
     </row>
-    <row r="52" spans="1:20" ht="15" thickBot="1">
+    <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23">
         <v>1</v>
       </c>
@@ -11317,7 +11313,7 @@
       <c r="S52" s="29"/>
       <c r="T52" s="119"/>
     </row>
-    <row r="53" spans="1:20" ht="15" thickBot="1">
+    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="30"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -11339,7 +11335,7 @@
       <c r="S53" s="29"/>
       <c r="T53" s="119"/>
     </row>
-    <row r="54" spans="1:20" ht="72.599999999999994">
+    <row r="54" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>1</v>
       </c>
@@ -11391,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>2</v>
       </c>
@@ -11425,7 +11421,7 @@
       <c r="S55" s="29"/>
       <c r="T55" s="119"/>
     </row>
-    <row r="56" spans="1:20" ht="15" thickBot="1">
+    <row r="56" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="81">
         <v>3</v>
       </c>
@@ -11459,7 +11455,7 @@
       <c r="S56" s="29"/>
       <c r="T56" s="119"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="78">
         <v>1</v>
       </c>
@@ -11495,7 +11491,7 @@
       <c r="S57" s="29"/>
       <c r="T57" s="119"/>
     </row>
-    <row r="58" spans="1:20" ht="15" thickBot="1">
+    <row r="58" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
         <v>2</v>
       </c>
@@ -11531,7 +11527,7 @@
       <c r="S58" s="29"/>
       <c r="T58" s="119"/>
     </row>
-    <row r="59" spans="1:20" ht="15" thickBot="1">
+    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="30"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -11553,7 +11549,7 @@
       <c r="S59" s="29"/>
       <c r="T59" s="119"/>
     </row>
-    <row r="60" spans="1:20" ht="57.95">
+    <row r="60" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -11607,7 +11603,7 @@
       </c>
       <c r="T60" s="119"/>
     </row>
-    <row r="61" spans="1:20" ht="29.1">
+    <row r="61" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>2</v>
       </c>
@@ -11655,7 +11651,7 @@
       </c>
       <c r="T61" s="119"/>
     </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1">
+    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="81">
         <v>3</v>
       </c>
@@ -11689,7 +11685,7 @@
       <c r="S62" s="29"/>
       <c r="T62" s="119"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="78">
         <v>1</v>
       </c>
@@ -11725,7 +11721,7 @@
       <c r="S63" s="29"/>
       <c r="T63" s="119"/>
     </row>
-    <row r="64" spans="1:20" ht="15" thickBot="1">
+    <row r="64" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13">
         <v>2</v>
       </c>
@@ -11761,7 +11757,7 @@
       <c r="S64" s="29"/>
       <c r="T64" s="119"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
@@ -11783,7 +11779,7 @@
       <c r="S65" s="29"/>
       <c r="T65" s="119"/>
     </row>
-    <row r="66" spans="1:20" ht="43.5">
+    <row r="66" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
@@ -11813,7 +11809,7 @@
       <c r="S66" s="29"/>
       <c r="T66" s="119"/>
     </row>
-    <row r="67" spans="1:20" ht="43.5">
+    <row r="67" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="30"/>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -11843,7 +11839,7 @@
       <c r="S67" s="29"/>
       <c r="T67" s="119"/>
     </row>
-    <row r="68" spans="1:20" ht="43.5">
+    <row r="68" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="30"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -11873,7 +11869,7 @@
       <c r="S68" s="29"/>
       <c r="T68" s="119"/>
     </row>
-    <row r="69" spans="1:20" ht="44.1" thickBot="1">
+    <row r="69" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="30"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -11903,7 +11899,7 @@
       <c r="S69" s="29"/>
       <c r="T69" s="119"/>
     </row>
-    <row r="70" spans="1:20" ht="72.599999999999994">
+    <row r="70" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>1</v>
       </c>
@@ -11955,7 +11951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>2</v>
       </c>
@@ -11989,7 +11985,7 @@
       <c r="S71" s="29"/>
       <c r="T71" s="119"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>3</v>
       </c>
@@ -12023,7 +12019,7 @@
       <c r="S72" s="29"/>
       <c r="T72" s="119"/>
     </row>
-    <row r="73" spans="1:20" ht="15" thickBot="1">
+    <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="81">
         <v>4</v>
       </c>
@@ -12057,7 +12053,7 @@
       <c r="S73" s="29"/>
       <c r="T73" s="119"/>
     </row>
-    <row r="74" spans="1:20" ht="29.45" thickBot="1">
+    <row r="74" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="23">
         <v>1</v>
       </c>
@@ -12093,7 +12089,7 @@
       <c r="S74" s="29"/>
       <c r="T74" s="119"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="30"/>
       <c r="B75" s="33"/>
       <c r="C75" s="29"/>
@@ -12115,7 +12111,7 @@
       <c r="S75" s="29"/>
       <c r="T75" s="119"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="30"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
@@ -12137,7 +12133,7 @@
       <c r="S76" s="29"/>
       <c r="T76" s="119"/>
     </row>
-    <row r="77" spans="1:20" ht="57.95">
+    <row r="77" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="30"/>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
@@ -12167,7 +12163,7 @@
       <c r="S77" s="29"/>
       <c r="T77" s="119"/>
     </row>
-    <row r="78" spans="1:20" ht="57.95">
+    <row r="78" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="30"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
@@ -12197,7 +12193,7 @@
       <c r="S78" s="29"/>
       <c r="T78" s="119"/>
     </row>
-    <row r="79" spans="1:20" ht="57.95">
+    <row r="79" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="30"/>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
@@ -12227,7 +12223,7 @@
       <c r="S79" s="29"/>
       <c r="T79" s="119"/>
     </row>
-    <row r="80" spans="1:20" ht="57.95">
+    <row r="80" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="30"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
@@ -12257,7 +12253,7 @@
       <c r="S80" s="29"/>
       <c r="T80" s="119"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
@@ -12279,7 +12275,7 @@
       <c r="S81" s="29"/>
       <c r="T81" s="119"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
@@ -12301,7 +12297,7 @@
       <c r="S82" s="29"/>
       <c r="T82" s="119"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="30"/>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
@@ -12323,7 +12319,7 @@
       <c r="S83" s="29"/>
       <c r="T83" s="119"/>
     </row>
-    <row r="84" spans="1:20" ht="15" thickBot="1">
+    <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="30"/>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
@@ -12345,7 +12341,7 @@
       <c r="S84" s="29"/>
       <c r="T84" s="119"/>
     </row>
-    <row r="85" spans="1:20" ht="72.599999999999994">
+    <row r="85" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>1</v>
       </c>
@@ -12397,7 +12393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>2</v>
       </c>
@@ -12431,7 +12427,7 @@
       <c r="S86" s="29"/>
       <c r="T86" s="119"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>3</v>
       </c>
@@ -12463,7 +12459,7 @@
       <c r="S87" s="29"/>
       <c r="T87" s="119"/>
     </row>
-    <row r="88" spans="1:20" ht="15" thickBot="1">
+    <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="81">
         <v>4</v>
       </c>
@@ -12497,7 +12493,7 @@
       <c r="S88" s="29"/>
       <c r="T88" s="119"/>
     </row>
-    <row r="89" spans="1:20" ht="29.1">
+    <row r="89" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="78">
         <v>1</v>
       </c>
@@ -12533,7 +12529,7 @@
       <c r="S89" s="29"/>
       <c r="T89" s="119"/>
     </row>
-    <row r="90" spans="1:20" ht="29.45" thickBot="1">
+    <row r="90" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13">
         <v>2</v>
       </c>
@@ -12569,7 +12565,7 @@
       <c r="S90" s="29"/>
       <c r="T90" s="119"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="30"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -12591,7 +12587,7 @@
       <c r="S91" s="29"/>
       <c r="T91" s="119"/>
     </row>
-    <row r="92" spans="1:20" ht="44.1" thickBot="1">
+    <row r="92" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="30"/>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
@@ -12621,7 +12617,7 @@
       <c r="S92" s="29"/>
       <c r="T92" s="119"/>
     </row>
-    <row r="93" spans="1:20" ht="72.599999999999994">
+    <row r="93" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>1</v>
       </c>
@@ -12673,7 +12669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>2</v>
       </c>
@@ -12707,7 +12703,7 @@
       <c r="S94" s="29"/>
       <c r="T94" s="119"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>3</v>
       </c>
@@ -12739,7 +12735,7 @@
       <c r="S95" s="29"/>
       <c r="T95" s="119"/>
     </row>
-    <row r="96" spans="1:20" ht="15" thickBot="1">
+    <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="81">
         <v>4</v>
       </c>
@@ -12773,7 +12769,7 @@
       <c r="S96" s="29"/>
       <c r="T96" s="119"/>
     </row>
-    <row r="97" spans="1:21" ht="29.1">
+    <row r="97" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="78">
         <v>1</v>
       </c>
@@ -12809,7 +12805,7 @@
       <c r="S97" s="29"/>
       <c r="T97" s="119"/>
     </row>
-    <row r="98" spans="1:21" ht="29.45" thickBot="1">
+    <row r="98" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="13">
         <v>2</v>
       </c>
@@ -12845,7 +12841,7 @@
       <c r="S98" s="29"/>
       <c r="T98" s="119"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="30"/>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -12867,7 +12863,7 @@
       <c r="S99" s="29"/>
       <c r="T99" s="119"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="30"/>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
@@ -12889,7 +12885,7 @@
       <c r="S100" s="29"/>
       <c r="T100" s="119"/>
     </row>
-    <row r="101" spans="1:21" ht="43.5">
+    <row r="101" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="30"/>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
@@ -12919,7 +12915,7 @@
       <c r="S101" s="29"/>
       <c r="T101" s="119"/>
     </row>
-    <row r="102" spans="1:21" ht="15" thickBot="1">
+    <row r="102" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="30"/>
       <c r="B102" s="29"/>
       <c r="C102" s="29"/>
@@ -12941,7 +12937,7 @@
       <c r="S102" s="29"/>
       <c r="T102" s="119"/>
     </row>
-    <row r="103" spans="1:21" ht="72.599999999999994">
+    <row r="103" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -12993,7 +12989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>2</v>
       </c>
@@ -13027,7 +13023,7 @@
       <c r="S104" s="29"/>
       <c r="T104" s="119"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>3</v>
       </c>
@@ -13059,7 +13055,7 @@
       <c r="S105" s="29"/>
       <c r="T105" s="119"/>
     </row>
-    <row r="106" spans="1:21" ht="15" thickBot="1">
+    <row r="106" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="81">
         <v>4</v>
       </c>
@@ -13093,7 +13089,7 @@
       <c r="S106" s="29"/>
       <c r="T106" s="119"/>
     </row>
-    <row r="107" spans="1:21" ht="29.1">
+    <row r="107" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="78">
         <v>1</v>
       </c>
@@ -13129,7 +13125,7 @@
       <c r="S107" s="29"/>
       <c r="T107" s="119"/>
     </row>
-    <row r="108" spans="1:21" ht="29.45" thickBot="1">
+    <row r="108" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13">
         <v>2</v>
       </c>
@@ -13165,7 +13161,7 @@
       <c r="S108" s="29"/>
       <c r="T108" s="119"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="30"/>
       <c r="B109" s="33"/>
       <c r="C109" s="29"/>
@@ -13188,7 +13184,7 @@
       <c r="T109" s="120"/>
       <c r="U109" s="29"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="30"/>
       <c r="B110" s="33"/>
       <c r="C110" s="29"/>
@@ -13211,7 +13207,7 @@
       <c r="T110" s="120"/>
       <c r="U110" s="29"/>
     </row>
-    <row r="111" spans="1:21" ht="87.6" thickBot="1">
+    <row r="111" spans="1:21" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
@@ -13239,691 +13235,691 @@
       <c r="S111" s="22"/>
       <c r="T111" s="121"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M112" s="29"/>
     </row>
-    <row r="113" spans="13:13">
+    <row r="113" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M113" s="29"/>
     </row>
-    <row r="114" spans="13:13">
+    <row r="114" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M114" s="29"/>
     </row>
-    <row r="115" spans="13:13">
+    <row r="115" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M115" s="29"/>
     </row>
-    <row r="116" spans="13:13">
+    <row r="116" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M116" s="29"/>
     </row>
-    <row r="117" spans="13:13">
+    <row r="117" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M117" s="29"/>
     </row>
-    <row r="118" spans="13:13">
+    <row r="118" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M118" s="29"/>
     </row>
-    <row r="119" spans="13:13">
+    <row r="119" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M119" s="29"/>
     </row>
-    <row r="120" spans="13:13">
+    <row r="120" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M120" s="29"/>
     </row>
-    <row r="121" spans="13:13">
+    <row r="121" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M121" s="29"/>
     </row>
-    <row r="122" spans="13:13">
+    <row r="122" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M122" s="29"/>
     </row>
-    <row r="123" spans="13:13">
+    <row r="123" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M123" s="29"/>
     </row>
-    <row r="124" spans="13:13">
+    <row r="124" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M124" s="29"/>
     </row>
-    <row r="125" spans="13:13">
+    <row r="125" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M125" s="29"/>
     </row>
-    <row r="126" spans="13:13">
+    <row r="126" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M126" s="29"/>
     </row>
-    <row r="127" spans="13:13">
+    <row r="127" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M127" s="29"/>
     </row>
-    <row r="128" spans="13:13">
+    <row r="128" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M128" s="29"/>
     </row>
-    <row r="129" spans="13:13">
+    <row r="129" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M129" s="29"/>
     </row>
-    <row r="130" spans="13:13">
+    <row r="130" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M130" s="29"/>
     </row>
-    <row r="131" spans="13:13">
+    <row r="131" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M131" s="29"/>
     </row>
-    <row r="132" spans="13:13">
+    <row r="132" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M132" s="29"/>
     </row>
-    <row r="133" spans="13:13">
+    <row r="133" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M133" s="29"/>
     </row>
-    <row r="134" spans="13:13">
+    <row r="134" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M134" s="29"/>
     </row>
-    <row r="135" spans="13:13">
+    <row r="135" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M135" s="29"/>
     </row>
-    <row r="136" spans="13:13">
+    <row r="136" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M136" s="29"/>
     </row>
-    <row r="137" spans="13:13">
+    <row r="137" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M137" s="29"/>
     </row>
-    <row r="138" spans="13:13">
+    <row r="138" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M138" s="29"/>
     </row>
-    <row r="139" spans="13:13">
+    <row r="139" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M139" s="29"/>
     </row>
-    <row r="140" spans="13:13">
+    <row r="140" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M140" s="29"/>
     </row>
-    <row r="141" spans="13:13">
+    <row r="141" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M141" s="29"/>
     </row>
-    <row r="142" spans="13:13">
+    <row r="142" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M142" s="29"/>
     </row>
-    <row r="143" spans="13:13">
+    <row r="143" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M143" s="29"/>
     </row>
-    <row r="144" spans="13:13">
+    <row r="144" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M144" s="29"/>
     </row>
-    <row r="145" spans="13:13">
+    <row r="145" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M145" s="29"/>
     </row>
-    <row r="146" spans="13:13">
+    <row r="146" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M146" s="29"/>
     </row>
-    <row r="147" spans="13:13">
+    <row r="147" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M147" s="29"/>
     </row>
-    <row r="148" spans="13:13">
+    <row r="148" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M148" s="29"/>
     </row>
-    <row r="149" spans="13:13">
+    <row r="149" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M149" s="29"/>
     </row>
-    <row r="150" spans="13:13">
+    <row r="150" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M150" s="29"/>
     </row>
-    <row r="151" spans="13:13">
+    <row r="151" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M151" s="29"/>
     </row>
-    <row r="152" spans="13:13">
+    <row r="152" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M152" s="29"/>
     </row>
-    <row r="153" spans="13:13">
+    <row r="153" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M153" s="29"/>
     </row>
-    <row r="154" spans="13:13">
+    <row r="154" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M154" s="29"/>
     </row>
-    <row r="155" spans="13:13">
+    <row r="155" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M155" s="29"/>
     </row>
-    <row r="156" spans="13:13">
+    <row r="156" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M156" s="29"/>
     </row>
-    <row r="157" spans="13:13">
+    <row r="157" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M157" s="29"/>
     </row>
-    <row r="158" spans="13:13">
+    <row r="158" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M158" s="29"/>
     </row>
-    <row r="159" spans="13:13">
+    <row r="159" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M159" s="29"/>
     </row>
-    <row r="160" spans="13:13">
+    <row r="160" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M160" s="29"/>
     </row>
-    <row r="161" spans="13:13">
+    <row r="161" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M161" s="29"/>
     </row>
-    <row r="162" spans="13:13">
+    <row r="162" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M162" s="29"/>
     </row>
-    <row r="163" spans="13:13">
+    <row r="163" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M163" s="29"/>
     </row>
-    <row r="164" spans="13:13">
+    <row r="164" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M164" s="29"/>
     </row>
-    <row r="165" spans="13:13">
+    <row r="165" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M165" s="29"/>
     </row>
-    <row r="166" spans="13:13">
+    <row r="166" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M166" s="29"/>
     </row>
-    <row r="167" spans="13:13">
+    <row r="167" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M167" s="29"/>
     </row>
-    <row r="168" spans="13:13">
+    <row r="168" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M168" s="29"/>
     </row>
-    <row r="169" spans="13:13">
+    <row r="169" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M169" s="29"/>
     </row>
-    <row r="170" spans="13:13">
+    <row r="170" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M170" s="29"/>
     </row>
-    <row r="171" spans="13:13">
+    <row r="171" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M171" s="29"/>
     </row>
-    <row r="172" spans="13:13">
+    <row r="172" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M172" s="29"/>
     </row>
-    <row r="173" spans="13:13">
+    <row r="173" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M173" s="29"/>
     </row>
-    <row r="174" spans="13:13">
+    <row r="174" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M174" s="29"/>
     </row>
-    <row r="175" spans="13:13">
+    <row r="175" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M175" s="29"/>
     </row>
-    <row r="176" spans="13:13">
+    <row r="176" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M176" s="29"/>
     </row>
-    <row r="177" spans="13:13">
+    <row r="177" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M177" s="29"/>
     </row>
-    <row r="178" spans="13:13">
+    <row r="178" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M178" s="29"/>
     </row>
-    <row r="179" spans="13:13">
+    <row r="179" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M179" s="29"/>
     </row>
-    <row r="180" spans="13:13">
+    <row r="180" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M180" s="29"/>
     </row>
-    <row r="181" spans="13:13">
+    <row r="181" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M181" s="29"/>
     </row>
-    <row r="182" spans="13:13">
+    <row r="182" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M182" s="29"/>
     </row>
-    <row r="183" spans="13:13">
+    <row r="183" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M183" s="29"/>
     </row>
-    <row r="184" spans="13:13">
+    <row r="184" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M184" s="29"/>
     </row>
-    <row r="185" spans="13:13">
+    <row r="185" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M185" s="29"/>
     </row>
-    <row r="186" spans="13:13">
+    <row r="186" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M186" s="29"/>
     </row>
-    <row r="187" spans="13:13">
+    <row r="187" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M187" s="29"/>
     </row>
-    <row r="188" spans="13:13">
+    <row r="188" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M188" s="29"/>
     </row>
-    <row r="189" spans="13:13">
+    <row r="189" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M189" s="29"/>
     </row>
-    <row r="190" spans="13:13">
+    <row r="190" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M190" s="29"/>
     </row>
-    <row r="191" spans="13:13">
+    <row r="191" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M191" s="29"/>
     </row>
-    <row r="192" spans="13:13">
+    <row r="192" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M192" s="29"/>
     </row>
-    <row r="193" spans="13:13">
+    <row r="193" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M193" s="29"/>
     </row>
-    <row r="194" spans="13:13">
+    <row r="194" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M194" s="29"/>
     </row>
-    <row r="195" spans="13:13">
+    <row r="195" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M195" s="29"/>
     </row>
-    <row r="196" spans="13:13">
+    <row r="196" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M196" s="29"/>
     </row>
-    <row r="197" spans="13:13">
+    <row r="197" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M197" s="29"/>
     </row>
-    <row r="198" spans="13:13">
+    <row r="198" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M198" s="29"/>
     </row>
-    <row r="199" spans="13:13">
+    <row r="199" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M199" s="29"/>
     </row>
-    <row r="200" spans="13:13">
+    <row r="200" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M200" s="29"/>
     </row>
-    <row r="201" spans="13:13">
+    <row r="201" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M201" s="29"/>
     </row>
-    <row r="202" spans="13:13">
+    <row r="202" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M202" s="29"/>
     </row>
-    <row r="203" spans="13:13">
+    <row r="203" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M203" s="29"/>
     </row>
-    <row r="204" spans="13:13">
+    <row r="204" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M204" s="29"/>
     </row>
-    <row r="205" spans="13:13">
+    <row r="205" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M205" s="29"/>
     </row>
-    <row r="206" spans="13:13">
+    <row r="206" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M206" s="29"/>
     </row>
-    <row r="207" spans="13:13">
+    <row r="207" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M207" s="29"/>
     </row>
-    <row r="208" spans="13:13">
+    <row r="208" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M208" s="29"/>
     </row>
-    <row r="209" spans="13:13">
+    <row r="209" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M209" s="29"/>
     </row>
-    <row r="210" spans="13:13">
+    <row r="210" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M210" s="29"/>
     </row>
-    <row r="211" spans="13:13">
+    <row r="211" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M211" s="29"/>
     </row>
-    <row r="212" spans="13:13">
+    <row r="212" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M212" s="29"/>
     </row>
-    <row r="213" spans="13:13">
+    <row r="213" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M213" s="29"/>
     </row>
-    <row r="214" spans="13:13">
+    <row r="214" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M214" s="29"/>
     </row>
-    <row r="215" spans="13:13">
+    <row r="215" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M215" s="29"/>
     </row>
-    <row r="216" spans="13:13">
+    <row r="216" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M216" s="29"/>
     </row>
-    <row r="217" spans="13:13">
+    <row r="217" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M217" s="29"/>
     </row>
-    <row r="218" spans="13:13">
+    <row r="218" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M218" s="29"/>
     </row>
-    <row r="219" spans="13:13">
+    <row r="219" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M219" s="29"/>
     </row>
-    <row r="220" spans="13:13">
+    <row r="220" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M220" s="29"/>
     </row>
-    <row r="221" spans="13:13">
+    <row r="221" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M221" s="29"/>
     </row>
-    <row r="222" spans="13:13">
+    <row r="222" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M222" s="29"/>
     </row>
-    <row r="223" spans="13:13">
+    <row r="223" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M223" s="29"/>
     </row>
-    <row r="224" spans="13:13">
+    <row r="224" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M224" s="29"/>
     </row>
-    <row r="225" spans="13:13">
+    <row r="225" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M225" s="29"/>
     </row>
-    <row r="226" spans="13:13">
+    <row r="226" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M226" s="29"/>
     </row>
-    <row r="227" spans="13:13">
+    <row r="227" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M227" s="29"/>
     </row>
-    <row r="228" spans="13:13">
+    <row r="228" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M228" s="29"/>
     </row>
-    <row r="229" spans="13:13">
+    <row r="229" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M229" s="29"/>
     </row>
-    <row r="230" spans="13:13">
+    <row r="230" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M230" s="29"/>
     </row>
-    <row r="231" spans="13:13">
+    <row r="231" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M231" s="29"/>
     </row>
-    <row r="232" spans="13:13">
+    <row r="232" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M232" s="29"/>
     </row>
-    <row r="233" spans="13:13">
+    <row r="233" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M233" s="29"/>
     </row>
-    <row r="234" spans="13:13">
+    <row r="234" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M234" s="29"/>
     </row>
-    <row r="235" spans="13:13">
+    <row r="235" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M235" s="29"/>
     </row>
-    <row r="236" spans="13:13">
+    <row r="236" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M236" s="29"/>
     </row>
-    <row r="237" spans="13:13">
+    <row r="237" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M237" s="29"/>
     </row>
-    <row r="238" spans="13:13">
+    <row r="238" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M238" s="29"/>
     </row>
-    <row r="239" spans="13:13">
+    <row r="239" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M239" s="29"/>
     </row>
-    <row r="240" spans="13:13">
+    <row r="240" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M240" s="29"/>
     </row>
-    <row r="241" spans="13:13">
+    <row r="241" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M241" s="29"/>
     </row>
-    <row r="242" spans="13:13">
+    <row r="242" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M242" s="29"/>
     </row>
-    <row r="243" spans="13:13">
+    <row r="243" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M243" s="29"/>
     </row>
-    <row r="244" spans="13:13">
+    <row r="244" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M244" s="29"/>
     </row>
-    <row r="245" spans="13:13">
+    <row r="245" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M245" s="29"/>
     </row>
-    <row r="246" spans="13:13">
+    <row r="246" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M246" s="29"/>
     </row>
-    <row r="247" spans="13:13">
+    <row r="247" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M247" s="29"/>
     </row>
-    <row r="248" spans="13:13">
+    <row r="248" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M248" s="29"/>
     </row>
-    <row r="249" spans="13:13">
+    <row r="249" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M249" s="29"/>
     </row>
-    <row r="250" spans="13:13">
+    <row r="250" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M250" s="29"/>
     </row>
-    <row r="251" spans="13:13">
+    <row r="251" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M251" s="29"/>
     </row>
-    <row r="252" spans="13:13">
+    <row r="252" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M252" s="29"/>
     </row>
-    <row r="253" spans="13:13">
+    <row r="253" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M253" s="29"/>
     </row>
-    <row r="254" spans="13:13">
+    <row r="254" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M254" s="29"/>
     </row>
-    <row r="255" spans="13:13">
+    <row r="255" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M255" s="29"/>
     </row>
-    <row r="256" spans="13:13">
+    <row r="256" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M256" s="29"/>
     </row>
-    <row r="257" spans="13:13">
+    <row r="257" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M257" s="29"/>
     </row>
-    <row r="258" spans="13:13">
+    <row r="258" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M258" s="29"/>
     </row>
-    <row r="259" spans="13:13">
+    <row r="259" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M259" s="29"/>
     </row>
-    <row r="260" spans="13:13">
+    <row r="260" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M260" s="29"/>
     </row>
-    <row r="261" spans="13:13">
+    <row r="261" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M261" s="29"/>
     </row>
-    <row r="262" spans="13:13">
+    <row r="262" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M262" s="29"/>
     </row>
-    <row r="263" spans="13:13">
+    <row r="263" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M263" s="29"/>
     </row>
-    <row r="264" spans="13:13">
+    <row r="264" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M264" s="29"/>
     </row>
-    <row r="265" spans="13:13">
+    <row r="265" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M265" s="29"/>
     </row>
-    <row r="266" spans="13:13">
+    <row r="266" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M266" s="29"/>
     </row>
-    <row r="267" spans="13:13">
+    <row r="267" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M267" s="29"/>
     </row>
-    <row r="268" spans="13:13">
+    <row r="268" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M268" s="29"/>
     </row>
-    <row r="269" spans="13:13">
+    <row r="269" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M269" s="29"/>
     </row>
-    <row r="270" spans="13:13">
+    <row r="270" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M270" s="29"/>
     </row>
-    <row r="271" spans="13:13">
+    <row r="271" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M271" s="29"/>
     </row>
-    <row r="272" spans="13:13">
+    <row r="272" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M272" s="29"/>
     </row>
-    <row r="273" spans="13:13">
+    <row r="273" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M273" s="29"/>
     </row>
-    <row r="274" spans="13:13">
+    <row r="274" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M274" s="29"/>
     </row>
-    <row r="275" spans="13:13">
+    <row r="275" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M275" s="29"/>
     </row>
-    <row r="276" spans="13:13">
+    <row r="276" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M276" s="29"/>
     </row>
-    <row r="277" spans="13:13">
+    <row r="277" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M277" s="29"/>
     </row>
-    <row r="278" spans="13:13">
+    <row r="278" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M278" s="29"/>
     </row>
-    <row r="279" spans="13:13">
+    <row r="279" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M279" s="29"/>
     </row>
-    <row r="280" spans="13:13">
+    <row r="280" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M280" s="29"/>
     </row>
-    <row r="281" spans="13:13">
+    <row r="281" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M281" s="29"/>
     </row>
-    <row r="282" spans="13:13">
+    <row r="282" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M282" s="29"/>
     </row>
-    <row r="283" spans="13:13">
+    <row r="283" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M283" s="29"/>
     </row>
-    <row r="284" spans="13:13">
+    <row r="284" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M284" s="29"/>
     </row>
-    <row r="285" spans="13:13">
+    <row r="285" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M285" s="29"/>
     </row>
-    <row r="286" spans="13:13">
+    <row r="286" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M286" s="29"/>
     </row>
-    <row r="287" spans="13:13">
+    <row r="287" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M287" s="29"/>
     </row>
-    <row r="288" spans="13:13">
+    <row r="288" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M288" s="29"/>
     </row>
-    <row r="289" spans="13:13">
+    <row r="289" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M289" s="29"/>
     </row>
-    <row r="290" spans="13:13">
+    <row r="290" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M290" s="29"/>
     </row>
-    <row r="291" spans="13:13">
+    <row r="291" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M291" s="29"/>
     </row>
-    <row r="292" spans="13:13">
+    <row r="292" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M292" s="29"/>
     </row>
-    <row r="293" spans="13:13">
+    <row r="293" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M293" s="29"/>
     </row>
-    <row r="294" spans="13:13">
+    <row r="294" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M294" s="29"/>
     </row>
-    <row r="295" spans="13:13">
+    <row r="295" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M295" s="29"/>
     </row>
-    <row r="296" spans="13:13">
+    <row r="296" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M296" s="29"/>
     </row>
-    <row r="297" spans="13:13">
+    <row r="297" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M297" s="29"/>
     </row>
-    <row r="298" spans="13:13">
+    <row r="298" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M298" s="29"/>
     </row>
-    <row r="299" spans="13:13">
+    <row r="299" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M299" s="29"/>
     </row>
-    <row r="300" spans="13:13">
+    <row r="300" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M300" s="29"/>
     </row>
-    <row r="301" spans="13:13">
+    <row r="301" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M301" s="29"/>
     </row>
-    <row r="302" spans="13:13">
+    <row r="302" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M302" s="29"/>
     </row>
-    <row r="303" spans="13:13">
+    <row r="303" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M303" s="29"/>
     </row>
-    <row r="304" spans="13:13">
+    <row r="304" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M304" s="29"/>
     </row>
-    <row r="305" spans="13:13">
+    <row r="305" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M305" s="29"/>
     </row>
-    <row r="306" spans="13:13">
+    <row r="306" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M306" s="29"/>
     </row>
-    <row r="307" spans="13:13">
+    <row r="307" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M307" s="29"/>
     </row>
-    <row r="308" spans="13:13">
+    <row r="308" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M308" s="29"/>
     </row>
-    <row r="309" spans="13:13">
+    <row r="309" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M309" s="29"/>
     </row>
-    <row r="310" spans="13:13">
+    <row r="310" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M310" s="29"/>
     </row>
-    <row r="311" spans="13:13">
+    <row r="311" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M311" s="29"/>
     </row>
-    <row r="312" spans="13:13">
+    <row r="312" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M312" s="29"/>
     </row>
-    <row r="313" spans="13:13">
+    <row r="313" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M313" s="29"/>
     </row>
-    <row r="314" spans="13:13">
+    <row r="314" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M314" s="29"/>
     </row>
-    <row r="315" spans="13:13">
+    <row r="315" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M315" s="29"/>
     </row>
-    <row r="316" spans="13:13">
+    <row r="316" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M316" s="29"/>
     </row>
-    <row r="317" spans="13:13">
+    <row r="317" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M317" s="29"/>
     </row>
-    <row r="318" spans="13:13">
+    <row r="318" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M318" s="29"/>
     </row>
-    <row r="319" spans="13:13">
+    <row r="319" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M319" s="29"/>
     </row>
-    <row r="320" spans="13:13">
+    <row r="320" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M320" s="29"/>
     </row>
-    <row r="321" spans="13:13">
+    <row r="321" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M321" s="29"/>
     </row>
-    <row r="322" spans="13:13">
+    <row r="322" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M322" s="29"/>
     </row>
-    <row r="323" spans="13:13">
+    <row r="323" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M323" s="29"/>
     </row>
-    <row r="324" spans="13:13">
+    <row r="324" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M324" s="29"/>
     </row>
-    <row r="325" spans="13:13">
+    <row r="325" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M325" s="29"/>
     </row>
-    <row r="326" spans="13:13">
+    <row r="326" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M326" s="29"/>
     </row>
-    <row r="327" spans="13:13">
+    <row r="327" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M327" s="29"/>
     </row>
-    <row r="328" spans="13:13">
+    <row r="328" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M328" s="29"/>
     </row>
-    <row r="329" spans="13:13">
+    <row r="329" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M329" s="29"/>
     </row>
-    <row r="330" spans="13:13">
+    <row r="330" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M330" s="29"/>
     </row>
-    <row r="331" spans="13:13">
+    <row r="331" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M331" s="29"/>
     </row>
-    <row r="332" spans="13:13">
+    <row r="332" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M332" s="29"/>
     </row>
-    <row r="333" spans="13:13">
+    <row r="333" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M333" s="29"/>
     </row>
-    <row r="334" spans="13:13">
+    <row r="334" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M334" s="29"/>
     </row>
-    <row r="335" spans="13:13">
+    <row r="335" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M335" s="29"/>
     </row>
-    <row r="336" spans="13:13">
+    <row r="336" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M336" s="29"/>
     </row>
-    <row r="337" spans="13:13">
+    <row r="337" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M337" s="29"/>
     </row>
-    <row r="338" spans="13:13">
+    <row r="338" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M338" s="29"/>
     </row>
-    <row r="339" spans="13:13">
+    <row r="339" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M339" s="29"/>
     </row>
-    <row r="340" spans="13:13">
+    <row r="340" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M340" s="29"/>
     </row>
   </sheetData>
